--- a/legendre_out/DATA/p2/p2IntegrandDataPoints3.500000.xlsx
+++ b/legendre_out/DATA/p2/p2IntegrandDataPoints3.500000.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C222"/>
+  <dimension ref="A1:C220"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -383,10 +383,10 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>3.424536350759639</v>
+        <v>3.434374559103622</v>
       </c>
       <c r="C2" t="n">
-        <v>4.093665583911246e-09</v>
+        <v>4.319554374348619e-09</v>
       </c>
     </row>
     <row r="3">
@@ -394,10 +394,10 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>3.42877843536789</v>
+        <v>3.43865949305135</v>
       </c>
       <c r="C3" t="n">
-        <v>6.254727189577571e-09</v>
+        <v>6.623814651801582e-09</v>
       </c>
     </row>
     <row r="4">
@@ -405,10 +405,10 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>3.430466699343294</v>
+        <v>3.440287767951486</v>
       </c>
       <c r="C4" t="n">
-        <v>7.378447569524948e-09</v>
+        <v>7.872029559762776e-09</v>
       </c>
     </row>
     <row r="5">
@@ -416,10 +416,10 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>3.433920356105163</v>
+        <v>3.443801413788623</v>
       </c>
       <c r="C5" t="n">
-        <v>1.054326961224363e-08</v>
+        <v>1.095675618831943e-08</v>
       </c>
     </row>
     <row r="6">
@@ -427,10 +427,10 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>3.435737168099</v>
+        <v>3.445601086046668</v>
       </c>
       <c r="C6" t="n">
-        <v>1.115209309690278e-08</v>
+        <v>1.163571214810871e-08</v>
       </c>
     </row>
     <row r="7">
@@ -438,10 +438,10 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>3.436542735681173</v>
+        <v>3.446372374157259</v>
       </c>
       <c r="C7" t="n">
-        <v>1.127554167172879e-08</v>
+        <v>1.169128672740421e-08</v>
       </c>
     </row>
     <row r="8">
@@ -449,10 +449,10 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>3.440861949100481</v>
+        <v>3.450743006783942</v>
       </c>
       <c r="C8" t="n">
-        <v>1.268908040156072e-08</v>
+        <v>1.320125872761328e-08</v>
       </c>
     </row>
     <row r="9">
@@ -460,10 +460,10 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>3.444324175730245</v>
+        <v>3.454170953942123</v>
       </c>
       <c r="C9" t="n">
-        <v>1.236662034417062e-08</v>
+        <v>1.280784467409286e-08</v>
       </c>
     </row>
     <row r="10">
@@ -471,10 +471,10 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>3.445018335029777</v>
+        <v>3.454856543373759</v>
       </c>
       <c r="C10" t="n">
-        <v>1.124764159281941e-08</v>
+        <v>1.166752685371875e-08</v>
       </c>
     </row>
     <row r="11">
@@ -482,10 +482,10 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>3.44940610739225</v>
+        <v>3.459227176000442</v>
       </c>
       <c r="C11" t="n">
-        <v>1.100787244271291e-08</v>
+        <v>1.145033837635394e-08</v>
       </c>
     </row>
     <row r="12">
@@ -493,10 +493,10 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>3.453639622132605</v>
+        <v>3.463512109948169</v>
       </c>
       <c r="C12" t="n">
-        <v>9.327039164362673e-09</v>
+        <v>9.67088042314044e-09</v>
       </c>
     </row>
     <row r="13">
@@ -504,10 +504,10 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>3.45806167396666</v>
+        <v>3.467882742574851</v>
       </c>
       <c r="C13" t="n">
-        <v>6.979390843107329e-09</v>
+        <v>7.282516051446712e-09</v>
       </c>
     </row>
     <row r="14">
@@ -515,10 +515,10 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>3.676516176489705</v>
+        <v>3.686414373908955</v>
       </c>
       <c r="C14" t="n">
-        <v>2.953486535405556e-09</v>
+        <v>3.063271096895389e-09</v>
       </c>
     </row>
     <row r="15">
@@ -526,10 +526,10 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>3.677433152354519</v>
+        <v>3.687271360698501</v>
       </c>
       <c r="C15" t="n">
-        <v>4.026767398493543e-09</v>
+        <v>4.190000066894421e-09</v>
       </c>
     </row>
     <row r="16">
@@ -537,10 +537,10 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>3.679207115008878</v>
+        <v>3.689071032956547</v>
       </c>
       <c r="C16" t="n">
-        <v>4.679497715357161e-09</v>
+        <v>4.87341790805552e-09</v>
       </c>
     </row>
     <row r="17">
@@ -548,10 +548,10 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>3.680072671666319</v>
+        <v>3.689928019746092</v>
       </c>
       <c r="C17" t="n">
-        <v>5.483435431820834e-09</v>
+        <v>5.739651799163402e-09</v>
       </c>
     </row>
     <row r="18">
@@ -559,10 +559,10 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>3.680886809116387</v>
+        <v>3.690699307856684</v>
       </c>
       <c r="C18" t="n">
-        <v>6.620078250526227e-09</v>
+        <v>6.892038648228434e-09</v>
       </c>
     </row>
     <row r="19">
@@ -570,10 +570,10 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>3.681743795905933</v>
+        <v>3.691641993325183</v>
       </c>
       <c r="C19" t="n">
-        <v>7.339972104902684e-09</v>
+        <v>7.713847193432781e-09</v>
       </c>
     </row>
     <row r="20">
@@ -581,10 +581,10 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>3.682660771770746</v>
+        <v>3.692498980114729</v>
       </c>
       <c r="C20" t="n">
-        <v>1.119004592300237e-08</v>
+        <v>1.164613421516468e-08</v>
       </c>
     </row>
     <row r="21">
@@ -592,10 +592,10 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>3.683397780409756</v>
+        <v>3.693270268225319</v>
       </c>
       <c r="C21" t="n">
-        <v>3.187196061411574e-08</v>
+        <v>3.326448090766656e-08</v>
       </c>
     </row>
     <row r="22">
@@ -603,10 +603,10 @@
         <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>3.684263337067197</v>
+        <v>3.694127255014865</v>
       </c>
       <c r="C22" t="n">
-        <v>4.983735377071701e-08</v>
+        <v>5.241944804397132e-08</v>
       </c>
     </row>
     <row r="23">
@@ -614,10 +614,10 @@
         <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>3.685943031174706</v>
+        <v>3.695841228593956</v>
       </c>
       <c r="C23" t="n">
-        <v>7.45851615909277e-08</v>
+        <v>7.810883380069503e-08</v>
       </c>
     </row>
     <row r="24">
@@ -625,10 +625,10 @@
         <v>22</v>
       </c>
       <c r="B24" t="n">
-        <v>3.687699854093274</v>
+        <v>3.697555202173048</v>
       </c>
       <c r="C24" t="n">
-        <v>7.527882148897798e-08</v>
+        <v>7.868565430521024e-08</v>
       </c>
     </row>
     <row r="25">
@@ -636,10 +636,10 @@
         <v>23</v>
       </c>
       <c r="B25" t="n">
-        <v>3.689525235955006</v>
+        <v>3.699354874431093</v>
       </c>
       <c r="C25" t="n">
-        <v>6.933069111510869e-08</v>
+        <v>7.275314741940719e-08</v>
       </c>
     </row>
     <row r="26">
@@ -647,10 +647,10 @@
         <v>24</v>
       </c>
       <c r="B26" t="n">
-        <v>3.691256349269888</v>
+        <v>3.701068848010184</v>
       </c>
       <c r="C26" t="n">
-        <v>6.568682834331063e-08</v>
+        <v>6.878954061789129e-08</v>
       </c>
     </row>
     <row r="27">
@@ -658,10 +658,10 @@
         <v>25</v>
       </c>
       <c r="B27" t="n">
-        <v>3.693013172188456</v>
+        <v>3.70286852026823</v>
       </c>
       <c r="C27" t="n">
-        <v>6.560147616071086e-08</v>
+        <v>6.874372572980061e-08</v>
       </c>
     </row>
     <row r="28">
@@ -669,10 +669,10 @@
         <v>26</v>
       </c>
       <c r="B28" t="n">
-        <v>3.693578783469556</v>
+        <v>3.703468411020912</v>
       </c>
       <c r="C28" t="n">
-        <v>6.651559571093634e-08</v>
+        <v>6.970702098783285e-08</v>
       </c>
     </row>
     <row r="29">
@@ -680,10 +680,10 @@
         <v>27</v>
       </c>
       <c r="B29" t="n">
-        <v>3.694615737484906</v>
+        <v>3.704496795168366</v>
       </c>
       <c r="C29" t="n">
-        <v>6.390912463269557e-08</v>
+        <v>6.701005344803701e-08</v>
       </c>
     </row>
     <row r="30">
@@ -691,10 +691,10 @@
         <v>28</v>
       </c>
       <c r="B30" t="n">
-        <v>3.696278291856625</v>
+        <v>3.706125070068503</v>
       </c>
       <c r="C30" t="n">
-        <v>6.420580699926004e-08</v>
+        <v>6.732477133373267e-08</v>
       </c>
     </row>
     <row r="31">
@@ -702,10 +702,10 @@
         <v>29</v>
       </c>
       <c r="B31" t="n">
-        <v>3.698009405171506</v>
+        <v>3.707839043647593</v>
       </c>
       <c r="C31" t="n">
-        <v>6.326704076083147e-08</v>
+        <v>6.667309419473131e-08</v>
       </c>
     </row>
     <row r="32">
@@ -713,10 +713,10 @@
         <v>30</v>
       </c>
       <c r="B32" t="n">
-        <v>3.699783367825865</v>
+        <v>3.709638715905639</v>
       </c>
       <c r="C32" t="n">
-        <v>6.161796749520953e-08</v>
+        <v>6.439413733391986e-08</v>
       </c>
     </row>
     <row r="33">
@@ -724,10 +724,10 @@
         <v>31</v>
       </c>
       <c r="B33" t="n">
-        <v>3.70147163180127</v>
+        <v>3.71135268948473</v>
       </c>
       <c r="C33" t="n">
-        <v>6.005475675362088e-08</v>
+        <v>6.251339798200567e-08</v>
       </c>
     </row>
     <row r="34">
@@ -735,10 +735,10 @@
         <v>32</v>
       </c>
       <c r="B34" t="n">
-        <v>3.703177035512466</v>
+        <v>3.713066663063821</v>
       </c>
       <c r="C34" t="n">
-        <v>5.509065626919084e-08</v>
+        <v>5.793572081715619e-08</v>
       </c>
     </row>
     <row r="35">
@@ -746,10 +746,10 @@
         <v>33</v>
       </c>
       <c r="B35" t="n">
-        <v>3.704736751469439</v>
+        <v>3.714609239285003</v>
       </c>
       <c r="C35" t="n">
-        <v>4.982209096053565e-08</v>
+        <v>5.2464773876335e-08</v>
       </c>
     </row>
     <row r="36">
@@ -757,10 +757,10 @@
         <v>34</v>
       </c>
       <c r="B36" t="n">
-        <v>3.706647832010125</v>
+        <v>3.716494610222004</v>
       </c>
       <c r="C36" t="n">
-        <v>4.03176698160163e-08</v>
+        <v>4.238993270390867e-08</v>
       </c>
     </row>
     <row r="37">
@@ -768,10 +768,10 @@
         <v>35</v>
       </c>
       <c r="B37" t="n">
-        <v>3.708276106910262</v>
+        <v>3.718122885122139</v>
       </c>
       <c r="C37" t="n">
-        <v>3.215187342574907e-08</v>
+        <v>3.364617911608961e-08</v>
       </c>
     </row>
     <row r="38">
@@ -779,10 +779,10 @@
         <v>36</v>
       </c>
       <c r="B38" t="n">
-        <v>3.709964370885666</v>
+        <v>3.719836858701231</v>
       </c>
       <c r="C38" t="n">
-        <v>2.137784158078371e-08</v>
+        <v>2.251217869317225e-08</v>
       </c>
     </row>
     <row r="39">
@@ -790,10 +790,10 @@
         <v>37</v>
       </c>
       <c r="B39" t="n">
-        <v>3.710855637146794</v>
+        <v>3.720693845490776</v>
       </c>
       <c r="C39" t="n">
-        <v>3.042422485156743e-08</v>
+        <v>3.177363688035651e-08</v>
       </c>
     </row>
     <row r="40">
@@ -801,10 +801,10 @@
         <v>38</v>
       </c>
       <c r="B40" t="n">
-        <v>3.711772613011608</v>
+        <v>3.721636530959276</v>
       </c>
       <c r="C40" t="n">
-        <v>1.507131175001093e-08</v>
+        <v>1.583597197948863e-08</v>
       </c>
     </row>
     <row r="41">
@@ -812,10 +812,10 @@
         <v>39</v>
       </c>
       <c r="B41" t="n">
-        <v>3.713529435930176</v>
+        <v>3.723350504538367</v>
       </c>
       <c r="C41" t="n">
-        <v>1.030367154572856e-08</v>
+        <v>1.070315186753369e-08</v>
       </c>
     </row>
     <row r="42">
@@ -823,10 +823,10 @@
         <v>40</v>
       </c>
       <c r="B42" t="n">
-        <v>3.715166280698207</v>
+        <v>3.725064478117458</v>
       </c>
       <c r="C42" t="n">
-        <v>7.767268258008312e-09</v>
+        <v>8.137417637451475e-09</v>
       </c>
     </row>
     <row r="43">
@@ -834,10 +834,10 @@
         <v>41</v>
       </c>
       <c r="B43" t="n">
-        <v>3.719356946099085</v>
+        <v>3.729178014707276</v>
       </c>
       <c r="C43" t="n">
-        <v>4.703516427862882e-09</v>
+        <v>4.877993659717918e-09</v>
       </c>
     </row>
     <row r="44">
@@ -845,10 +845,10 @@
         <v>42</v>
       </c>
       <c r="B44" t="n">
-        <v>3.723504762160485</v>
+        <v>3.73337724997605</v>
       </c>
       <c r="C44" t="n">
-        <v>4.092296583907766e-09</v>
+        <v>4.273612227153599e-09</v>
       </c>
     </row>
     <row r="45">
@@ -856,10 +856,10 @@
         <v>43</v>
       </c>
       <c r="B45" t="n">
-        <v>3.727875394787168</v>
+        <v>3.737747882602732</v>
       </c>
       <c r="C45" t="n">
-        <v>3.90304657209971e-09</v>
+        <v>4.024927883214462e-09</v>
       </c>
     </row>
     <row r="46">
@@ -867,10 +867,10 @@
         <v>44</v>
       </c>
       <c r="B46" t="n">
-        <v>3.745075119653346</v>
+        <v>3.754973317072596</v>
       </c>
       <c r="C46" t="n">
-        <v>4.070168778402154e-09</v>
+        <v>4.176897544873607e-09</v>
       </c>
     </row>
     <row r="47">
@@ -878,10 +878,10 @@
         <v>45</v>
       </c>
       <c r="B47" t="n">
-        <v>3.762300554123211</v>
+        <v>3.772113052863507</v>
       </c>
       <c r="C47" t="n">
-        <v>4.877113331470046e-09</v>
+        <v>5.043344086740869e-09</v>
       </c>
     </row>
     <row r="48">
@@ -889,10 +889,10 @@
         <v>46</v>
       </c>
       <c r="B48" t="n">
-        <v>3.779337451499375</v>
+        <v>3.789167089975462</v>
       </c>
       <c r="C48" t="n">
-        <v>6.386677329817259e-09</v>
+        <v>6.600762649199409e-09</v>
       </c>
     </row>
     <row r="49">
@@ -900,10 +900,10 @@
         <v>47</v>
       </c>
       <c r="B49" t="n">
-        <v>3.788087286620635</v>
+        <v>3.797908355228826</v>
       </c>
       <c r="C49" t="n">
-        <v>9.008174338165145e-09</v>
+        <v>9.309778485950062e-09</v>
       </c>
     </row>
     <row r="50">
@@ -911,10 +911,10 @@
         <v>48</v>
       </c>
       <c r="B50" t="n">
-        <v>3.796605735308717</v>
+        <v>3.806478223124282</v>
       </c>
       <c r="C50" t="n">
-        <v>1.102622439139762e-08</v>
+        <v>1.137937396206136e-08</v>
       </c>
     </row>
     <row r="51">
@@ -922,10 +922,10 @@
         <v>49</v>
       </c>
       <c r="B51" t="n">
-        <v>3.805055625053636</v>
+        <v>3.814876693661827</v>
       </c>
       <c r="C51" t="n">
-        <v>2.018351215815965e-08</v>
+        <v>2.08397088705048e-08</v>
       </c>
     </row>
     <row r="52">
@@ -933,10 +933,10 @@
         <v>50</v>
       </c>
       <c r="B52" t="n">
-        <v>3.813539794270136</v>
+        <v>3.823360862878328</v>
       </c>
       <c r="C52" t="n">
-        <v>3.089184568770055e-08</v>
+        <v>3.186762471355006e-08</v>
       </c>
     </row>
     <row r="53">
@@ -944,10 +944,10 @@
         <v>51</v>
       </c>
       <c r="B53" t="n">
-        <v>3.817867577557342</v>
+        <v>3.82773149550501</v>
       </c>
       <c r="C53" t="n">
-        <v>7.14039827269884e-08</v>
+        <v>7.366332936385665e-08</v>
       </c>
     </row>
     <row r="54">
@@ -955,10 +955,10 @@
         <v>52</v>
       </c>
       <c r="B54" t="n">
-        <v>3.82226391978771</v>
+        <v>3.832102128131692</v>
       </c>
       <c r="C54" t="n">
-        <v>1.053608358620599e-07</v>
+        <v>1.087438144763413e-07</v>
       </c>
     </row>
     <row r="55">
@@ -966,10 +966,10 @@
         <v>53</v>
       </c>
       <c r="B55" t="n">
-        <v>3.830696669796837</v>
+        <v>3.840586297348192</v>
       </c>
       <c r="C55" t="n">
-        <v>1.082941540580764e-07</v>
+        <v>1.117338578489339e-07</v>
       </c>
     </row>
     <row r="56">
@@ -977,10 +977,10 @@
         <v>54</v>
       </c>
       <c r="B56" t="n">
-        <v>3.837569703848993</v>
+        <v>3.847442191664556</v>
       </c>
       <c r="C56" t="n">
-        <v>7.815985188748344e-08</v>
+        <v>8.068033768654524e-08</v>
       </c>
     </row>
     <row r="57">
@@ -988,10 +988,10 @@
         <v>55</v>
       </c>
       <c r="B57" t="n">
-        <v>3.844554146183789</v>
+        <v>3.854383784659876</v>
       </c>
       <c r="C57" t="n">
-        <v>3.633851619976261e-08</v>
+        <v>3.7534577606485e-08</v>
       </c>
     </row>
     <row r="58">
@@ -999,10 +999,10 @@
         <v>56</v>
       </c>
       <c r="B58" t="n">
-        <v>3.846319538970252</v>
+        <v>3.856183456917921</v>
       </c>
       <c r="C58" t="n">
-        <v>2.661757437575566e-08</v>
+        <v>2.746514099940577e-08</v>
       </c>
     </row>
     <row r="59">
@@ -1010,10 +1010,10 @@
         <v>57</v>
       </c>
       <c r="B59" t="n">
-        <v>3.847930674134597</v>
+        <v>3.857811731818057</v>
       </c>
       <c r="C59" t="n">
-        <v>3.533782928562607e-08</v>
+        <v>3.647553510618532e-08</v>
       </c>
     </row>
     <row r="60">
@@ -1021,10 +1021,10 @@
         <v>58</v>
       </c>
       <c r="B60" t="n">
-        <v>3.84977319573212</v>
+        <v>3.859611404076103</v>
       </c>
       <c r="C60" t="n">
-        <v>1.355225742559213e-08</v>
+        <v>1.400374155507999e-08</v>
       </c>
     </row>
     <row r="61">
@@ -1032,10 +1032,10 @@
         <v>59</v>
       </c>
       <c r="B61" t="n">
-        <v>3.852147049139162</v>
+        <v>3.86201096708683</v>
       </c>
       <c r="C61" t="n">
-        <v>8.994945805001441e-09</v>
+        <v>9.300685695684207e-09</v>
       </c>
     </row>
     <row r="62">
@@ -1043,10 +1043,10 @@
         <v>60</v>
       </c>
       <c r="B62" t="n">
-        <v>3.856414843351097</v>
+        <v>3.866295901034558</v>
       </c>
       <c r="C62" t="n">
-        <v>5.023613320765607e-09</v>
+        <v>5.215914615848198e-09</v>
       </c>
     </row>
     <row r="63">
@@ -1054,10 +1054,10 @@
         <v>61</v>
       </c>
       <c r="B63" t="n">
-        <v>3.865190388076044</v>
+        <v>3.875037166287922</v>
       </c>
       <c r="C63" t="n">
-        <v>3.705363206798757e-09</v>
+        <v>3.811307588256653e-09</v>
       </c>
     </row>
     <row r="64">
@@ -1065,10 +1065,10 @@
         <v>62</v>
       </c>
       <c r="B64" t="n">
-        <v>3.866878652051449</v>
+        <v>3.876751139867013</v>
       </c>
       <c r="C64" t="n">
-        <v>8.200011209868433e-09</v>
+        <v>8.516018493225096e-09</v>
       </c>
     </row>
     <row r="65">
@@ -1076,10 +1076,10 @@
         <v>63</v>
       </c>
       <c r="B65" t="n">
-        <v>3.869363913741131</v>
+        <v>3.879236401556695</v>
       </c>
       <c r="C65" t="n">
-        <v>2.390866673987249e-08</v>
+        <v>2.50594245886722e-08</v>
       </c>
     </row>
     <row r="66">
@@ -1087,10 +1087,10 @@
         <v>64</v>
       </c>
       <c r="B66" t="n">
-        <v>3.873640277820963</v>
+        <v>3.883521335504422</v>
       </c>
       <c r="C66" t="n">
-        <v>4.151036006552161e-08</v>
+        <v>4.314540262884581e-08</v>
       </c>
     </row>
     <row r="67">
@@ -1098,10 +1098,10 @@
         <v>65</v>
       </c>
       <c r="B67" t="n">
-        <v>3.878070899522913</v>
+        <v>3.887891968131104</v>
       </c>
       <c r="C67" t="n">
-        <v>7.442854715245143e-08</v>
+        <v>7.752818248928023e-08</v>
       </c>
     </row>
     <row r="68">
@@ -1109,10 +1109,10 @@
         <v>66</v>
       </c>
       <c r="B68" t="n">
-        <v>3.881644534435317</v>
+        <v>3.891491312647195</v>
       </c>
       <c r="C68" t="n">
-        <v>7.374225299122915e-08</v>
+        <v>7.674126963063287e-08</v>
       </c>
     </row>
     <row r="69">
@@ -1120,10 +1120,10 @@
         <v>67</v>
       </c>
       <c r="B69" t="n">
-        <v>3.88648650979625</v>
+        <v>3.896376137347605</v>
       </c>
       <c r="C69" t="n">
-        <v>1.265490003106955e-07</v>
+        <v>1.31249164393289e-07</v>
       </c>
     </row>
     <row r="70">
@@ -1131,10 +1131,10 @@
         <v>68</v>
       </c>
       <c r="B70" t="n">
-        <v>3.890925701366096</v>
+        <v>3.900746769974288</v>
       </c>
       <c r="C70" t="n">
-        <v>1.385849225735346e-07</v>
+        <v>1.437569267886839e-07</v>
       </c>
     </row>
     <row r="71">
@@ -1142,10 +1142,10 @@
         <v>69</v>
       </c>
       <c r="B71" t="n">
-        <v>3.899118495074151</v>
+        <v>3.908973843153924</v>
       </c>
       <c r="C71" t="n">
-        <v>1.752483183450602e-07</v>
+        <v>1.811218998650561e-07</v>
       </c>
     </row>
     <row r="72">
@@ -1153,10 +1153,10 @@
         <v>70</v>
       </c>
       <c r="B72" t="n">
-        <v>3.908014017949633</v>
+        <v>3.917886505765197</v>
       </c>
       <c r="C72" t="n">
-        <v>2.584855909932338e-07</v>
+        <v>2.666435836814016e-07</v>
       </c>
     </row>
     <row r="73">
@@ -1164,10 +1164,10 @@
         <v>71</v>
       </c>
       <c r="B73" t="n">
-        <v>3.916541036505611</v>
+        <v>3.926370674981698</v>
       </c>
       <c r="C73" t="n">
-        <v>2.324746732939509e-07</v>
+        <v>2.396463069857814e-07</v>
       </c>
     </row>
     <row r="74">
@@ -1175,10 +1175,10 @@
         <v>72</v>
       </c>
       <c r="B74" t="n">
-        <v>3.925025205722112</v>
+        <v>3.934854844198199</v>
       </c>
       <c r="C74" t="n">
-        <v>1.152891460791993e-07</v>
+        <v>1.190715110339745e-07</v>
       </c>
     </row>
     <row r="75">
@@ -1186,10 +1186,10 @@
         <v>73</v>
       </c>
       <c r="B75" t="n">
-        <v>3.933637922957044</v>
+        <v>3.943510410772608</v>
       </c>
       <c r="C75" t="n">
-        <v>6.027266916149332e-08</v>
+        <v>6.208964654730669e-08</v>
       </c>
     </row>
     <row r="76">
@@ -1197,10 +1197,10 @@
         <v>74</v>
       </c>
       <c r="B76" t="n">
-        <v>3.942370618342513</v>
+        <v>3.952251676025972</v>
       </c>
       <c r="C76" t="n">
-        <v>4.717616361525504e-08</v>
+        <v>4.889366342048133e-08</v>
       </c>
     </row>
     <row r="77">
@@ -1208,10 +1208,10 @@
         <v>75</v>
       </c>
       <c r="B77" t="n">
-        <v>3.950700529936895</v>
+        <v>3.960564447884564</v>
       </c>
       <c r="C77" t="n">
-        <v>1.034325925191268e-07</v>
+        <v>1.076230603733552e-07</v>
       </c>
     </row>
     <row r="78">
@@ -1219,10 +1219,10 @@
         <v>76</v>
       </c>
       <c r="B78" t="n">
-        <v>3.959476074661841</v>
+        <v>3.969305713137928</v>
       </c>
       <c r="C78" t="n">
-        <v>1.129468727361209e-07</v>
+        <v>1.178617965373969e-07</v>
       </c>
     </row>
     <row r="79">
@@ -1230,10 +1230,10 @@
         <v>77</v>
       </c>
       <c r="B79" t="n">
-        <v>3.967797416388328</v>
+        <v>3.977618484996519</v>
       </c>
       <c r="C79" t="n">
-        <v>7.978912337071451e-08</v>
+        <v>8.353256323819913e-08</v>
       </c>
     </row>
     <row r="80">
@@ -1241,10 +1241,10 @@
         <v>78</v>
       </c>
       <c r="B80" t="n">
-        <v>3.97227945729765</v>
+        <v>3.982160514981111</v>
       </c>
       <c r="C80" t="n">
-        <v>4.183280072021078e-08</v>
+        <v>4.368168338614738e-08</v>
       </c>
     </row>
     <row r="81">
@@ -1252,10 +1252,10 @@
         <v>79</v>
       </c>
       <c r="B81" t="n">
-        <v>3.976384424019573</v>
+        <v>3.986274051570929</v>
       </c>
       <c r="C81" t="n">
-        <v>2.441427688502211e-08</v>
+        <v>2.545989391493286e-08</v>
       </c>
     </row>
     <row r="82">
@@ -1263,10 +1263,10 @@
         <v>80</v>
       </c>
       <c r="B82" t="n">
-        <v>3.984954291915029</v>
+        <v>3.994843919466384</v>
       </c>
       <c r="C82" t="n">
-        <v>1.981087922066745e-08</v>
+        <v>2.048867094074386e-08</v>
       </c>
     </row>
     <row r="83">
@@ -1274,10 +1274,10 @@
         <v>81</v>
       </c>
       <c r="B83" t="n">
-        <v>4.002231145592266</v>
+        <v>4.012069353936249</v>
       </c>
       <c r="C83" t="n">
-        <v>9.857444373347979e-09</v>
+        <v>1.019921653042531e-08</v>
       </c>
     </row>
     <row r="84">
@@ -1285,10 +1285,10 @@
         <v>82</v>
       </c>
       <c r="B84" t="n">
-        <v>4.010826723091408</v>
+        <v>4.020724920510658</v>
       </c>
       <c r="C84" t="n">
-        <v>5.048225303996608e-09</v>
+        <v>5.222927560367631e-09</v>
       </c>
     </row>
     <row r="85">
@@ -1296,10 +1296,10 @@
         <v>83</v>
       </c>
       <c r="B85" t="n">
-        <v>4.019208053893163</v>
+        <v>4.02903769236925</v>
       </c>
       <c r="C85" t="n">
-        <v>3.7452334848844e-09</v>
+        <v>3.884968781096479e-09</v>
       </c>
     </row>
     <row r="86">
@@ -1307,10 +1307,10 @@
         <v>84</v>
       </c>
       <c r="B86" t="n">
-        <v>4.036424918495132</v>
+        <v>4.046263126839114</v>
       </c>
       <c r="C86" t="n">
-        <v>2.852121846609923e-09</v>
+        <v>2.943220011320337e-09</v>
       </c>
     </row>
     <row r="87">
@@ -1318,10 +1318,10 @@
         <v>85</v>
       </c>
       <c r="B87" t="n">
-        <v>4.053547514550251</v>
+        <v>4.063402862630025</v>
       </c>
       <c r="C87" t="n">
-        <v>2.504027193674269e-09</v>
+        <v>2.592207398278428e-09</v>
       </c>
     </row>
     <row r="88">
@@ -1329,10 +1329,10 @@
         <v>86</v>
       </c>
       <c r="B88" t="n">
-        <v>4.070687250341162</v>
+        <v>4.080542598420934</v>
       </c>
       <c r="C88" t="n">
-        <v>3.223357856268472e-09</v>
+        <v>3.3319143560159e-09</v>
       </c>
     </row>
     <row r="89">
@@ -1340,10 +1340,10 @@
         <v>87</v>
       </c>
       <c r="B89" t="n">
-        <v>4.075126441911007</v>
+        <v>4.084998929726572</v>
       </c>
       <c r="C89" t="n">
-        <v>5.736041674375123e-09</v>
+        <v>5.902698686397123e-09</v>
       </c>
     </row>
     <row r="90">
@@ -1351,10 +1351,10 @@
         <v>88</v>
       </c>
       <c r="B90" t="n">
-        <v>4.078297293032326</v>
+        <v>4.08816978084789</v>
       </c>
       <c r="C90" t="n">
-        <v>6.403911011816788e-09</v>
+        <v>6.645964624297028e-09</v>
       </c>
     </row>
     <row r="91">
@@ -1362,10 +1362,10 @@
         <v>89</v>
       </c>
       <c r="B91" t="n">
-        <v>4.087861265603653</v>
+        <v>4.097682334211846</v>
       </c>
       <c r="C91" t="n">
-        <v>7.578116629426119e-09</v>
+        <v>7.865908217345019e-09</v>
       </c>
     </row>
     <row r="92">
@@ -1373,10 +1373,10 @@
         <v>90</v>
       </c>
       <c r="B92" t="n">
-        <v>4.09212905981559</v>
+        <v>4.101967268159573</v>
       </c>
       <c r="C92" t="n">
-        <v>1.13464042470653e-08</v>
+        <v>1.176982697641032e-08</v>
       </c>
     </row>
     <row r="93">
@@ -1384,10 +1384,10 @@
         <v>91</v>
       </c>
       <c r="B93" t="n">
-        <v>4.096551111649645</v>
+        <v>4.106423599465209</v>
       </c>
       <c r="C93" t="n">
-        <v>2.344788940645116e-08</v>
+        <v>2.464152576170822e-08</v>
       </c>
     </row>
     <row r="94">
@@ -1395,10 +1395,10 @@
         <v>92</v>
       </c>
       <c r="B94" t="n">
-        <v>4.105069560337727</v>
+        <v>4.114907768681709</v>
       </c>
       <c r="C94" t="n">
-        <v>2.880681974380558e-08</v>
+        <v>2.988767532307036e-08</v>
       </c>
     </row>
     <row r="95">
@@ -1406,10 +1406,10 @@
         <v>93</v>
       </c>
       <c r="B95" t="n">
-        <v>4.113468030875272</v>
+        <v>4.123306239219255</v>
       </c>
       <c r="C95" t="n">
-        <v>2.32533546613402e-08</v>
+        <v>2.407479814295018e-08</v>
       </c>
     </row>
     <row r="96">
@@ -1417,10 +1417,10 @@
         <v>94</v>
       </c>
       <c r="B96" t="n">
-        <v>4.122132167317578</v>
+        <v>4.131961805793665</v>
       </c>
       <c r="C96" t="n">
-        <v>1.087919244932152e-08</v>
+        <v>1.125723879655406e-08</v>
       </c>
     </row>
     <row r="97">
@@ -1428,10 +1428,10 @@
         <v>95</v>
       </c>
       <c r="B97" t="n">
-        <v>4.12395754917931</v>
+        <v>4.133847176730665</v>
       </c>
       <c r="C97" t="n">
-        <v>5.175116833277704e-09</v>
+        <v>5.374641941212867e-09</v>
       </c>
     </row>
     <row r="98">
@@ -1439,10 +1439,10 @@
         <v>96</v>
       </c>
       <c r="B98" t="n">
-        <v>4.126622778094797</v>
+        <v>4.136503835778257</v>
       </c>
       <c r="C98" t="n">
-        <v>3.185873327926796e-09</v>
+        <v>3.298910925406921e-09</v>
       </c>
     </row>
     <row r="99">
@@ -1450,10 +1450,10 @@
         <v>97</v>
       </c>
       <c r="B99" t="n">
-        <v>4.13072774481672</v>
+        <v>4.140617372368075</v>
       </c>
       <c r="C99" t="n">
-        <v>1.728600103790587e-09</v>
+        <v>1.789595309233065e-09</v>
       </c>
     </row>
     <row r="100">
@@ -1461,10 +1461,10 @@
         <v>98</v>
       </c>
       <c r="B100" t="n">
-        <v>4.139151924957952</v>
+        <v>4.149015842905621</v>
       </c>
       <c r="C100" t="n">
-        <v>1.101258588303146e-09</v>
+        <v>1.128934304093251e-09</v>
       </c>
     </row>
     <row r="101">
@@ -1472,10 +1472,10 @@
         <v>99</v>
       </c>
       <c r="B101" t="n">
-        <v>4.156411638899399</v>
+        <v>4.166241277375486</v>
       </c>
       <c r="C101" t="n">
-        <v>7.126511383584557e-10</v>
+        <v>7.379083270390332e-10</v>
       </c>
     </row>
     <row r="102">
@@ -1483,10 +1483,10 @@
         <v>100</v>
       </c>
       <c r="B102" t="n">
-        <v>4.170346244097408</v>
+        <v>4.180210162045077</v>
       </c>
       <c r="C102" t="n">
-        <v>6.596502616154203e-10</v>
+        <v>6.835415864788517e-10</v>
       </c>
     </row>
     <row r="103">
@@ -1494,10 +1494,10 @@
         <v>101</v>
       </c>
       <c r="B103" t="n">
-        <v>4.190571132330683</v>
+        <v>4.200435050278351</v>
       </c>
       <c r="C103" t="n">
-        <v>7.550989062256244e-10</v>
+        <v>7.755769574753986e-10</v>
       </c>
     </row>
     <row r="104">
@@ -1505,10 +1505,10 @@
         <v>102</v>
       </c>
       <c r="B104" t="n">
-        <v>4.199158139961929</v>
+        <v>4.209004918173807</v>
       </c>
       <c r="C104" t="n">
-        <v>1.376541624455163e-09</v>
+        <v>1.425711129401634e-09</v>
       </c>
     </row>
     <row r="105">
@@ -1516,10 +1516,10 @@
         <v>103</v>
       </c>
       <c r="B105" t="n">
-        <v>4.207916544951084</v>
+        <v>4.21774618342717</v>
       </c>
       <c r="C105" t="n">
-        <v>1.918624976875985e-09</v>
+        <v>1.981174142877004e-09</v>
       </c>
     </row>
     <row r="106">
@@ -1527,10 +1527,10 @@
         <v>104</v>
       </c>
       <c r="B106" t="n">
-        <v>4.216340725092316</v>
+        <v>4.226230352643671</v>
       </c>
       <c r="C106" t="n">
-        <v>2.388931943950816e-09</v>
+        <v>2.466308663122095e-09</v>
       </c>
     </row>
     <row r="107">
@@ -1538,10 +1538,10 @@
         <v>105</v>
       </c>
       <c r="B107" t="n">
-        <v>4.221645473319603</v>
+        <v>4.231543670738853</v>
       </c>
       <c r="C107" t="n">
-        <v>2.392378322621079e-09</v>
+        <v>2.463888793967992e-09</v>
       </c>
     </row>
     <row r="108">
@@ -1549,10 +1549,10 @@
         <v>106</v>
       </c>
       <c r="B108" t="n">
-        <v>4.225107699949367</v>
+        <v>4.234971617897036</v>
       </c>
       <c r="C108" t="n">
-        <v>2.396728142338475e-09</v>
+        <v>2.466667487834322e-09</v>
       </c>
     </row>
     <row r="109">
@@ -1560,10 +1560,10 @@
         <v>107</v>
       </c>
       <c r="B109" t="n">
-        <v>4.230875221043007</v>
+        <v>4.24071342938699</v>
       </c>
       <c r="C109" t="n">
-        <v>2.255552555266985e-09</v>
+        <v>2.325977119901194e-09</v>
       </c>
     </row>
     <row r="110">
@@ -1571,10 +1571,10 @@
         <v>108</v>
       </c>
       <c r="B110" t="n">
-        <v>4.23929940118424</v>
+        <v>4.249111899924536</v>
       </c>
       <c r="C110" t="n">
-        <v>2.272461268690059e-09</v>
+        <v>2.341614318733022e-09</v>
       </c>
     </row>
     <row r="111">
@@ -1582,10 +1582,10 @@
         <v>109</v>
       </c>
       <c r="B111" t="n">
-        <v>4.24231599468344</v>
+        <v>4.2521970523669</v>
       </c>
       <c r="C111" t="n">
-        <v>2.277916529145712e-09</v>
+        <v>2.351684591661763e-09</v>
       </c>
     </row>
     <row r="112">
@@ -1593,10 +1593,10 @@
         <v>110</v>
       </c>
       <c r="B112" t="n">
-        <v>4.24787783894759</v>
+        <v>4.257767466498946</v>
       </c>
       <c r="C112" t="n">
-        <v>2.370768949291839e-09</v>
+        <v>2.441187807023882e-09</v>
       </c>
     </row>
     <row r="113">
@@ -1604,10 +1604,10 @@
         <v>111</v>
       </c>
       <c r="B113" t="n">
-        <v>4.252257041442167</v>
+        <v>4.262138099125628</v>
       </c>
       <c r="C113" t="n">
-        <v>2.441842454508764e-09</v>
+        <v>2.518725617657423e-09</v>
       </c>
     </row>
     <row r="114">
@@ -1615,10 +1615,10 @@
         <v>112</v>
       </c>
       <c r="B114" t="n">
-        <v>4.25472516339606</v>
+        <v>4.264537662136355</v>
       </c>
       <c r="C114" t="n">
-        <v>2.59636356800618e-09</v>
+        <v>2.672065229822889e-09</v>
       </c>
     </row>
     <row r="115">
@@ -1626,10 +1626,10 @@
         <v>113</v>
       </c>
       <c r="B115" t="n">
-        <v>4.25739896217944</v>
+        <v>4.267280019862901</v>
       </c>
       <c r="C115" t="n">
-        <v>2.599029827765944e-09</v>
+        <v>2.682305833483053e-09</v>
       </c>
     </row>
     <row r="116">
@@ -1637,10 +1637,10 @@
         <v>114</v>
       </c>
       <c r="B116" t="n">
-        <v>4.259258623512755</v>
+        <v>4.269079692120946</v>
       </c>
       <c r="C116" t="n">
-        <v>2.637619983206822e-09</v>
+        <v>2.739167435918838e-09</v>
       </c>
     </row>
     <row r="117">
@@ -1648,10 +1648,10 @@
         <v>115</v>
       </c>
       <c r="B117" t="n">
-        <v>4.2616239070519</v>
+        <v>4.271479255131674</v>
       </c>
       <c r="C117" t="n">
-        <v>2.565595054091756e-09</v>
+        <v>2.644963981341308e-09</v>
       </c>
     </row>
     <row r="118">
@@ -1659,10 +1659,10 @@
         <v>116</v>
       </c>
       <c r="B118" t="n">
-        <v>4.263192192876769</v>
+        <v>4.273021831352856</v>
       </c>
       <c r="C118" t="n">
-        <v>2.54121880063676e-09</v>
+        <v>2.627280308296557e-09</v>
       </c>
     </row>
     <row r="119">
@@ -1670,10 +1670,10 @@
         <v>117</v>
       </c>
       <c r="B119" t="n">
-        <v>4.271830619715387</v>
+        <v>4.281677397927266</v>
       </c>
       <c r="C119" t="n">
-        <v>2.059139019579663e-09</v>
+        <v>2.125866694346388e-09</v>
       </c>
     </row>
     <row r="120">
@@ -1681,10 +1681,10 @@
         <v>118</v>
       </c>
       <c r="B120" t="n">
-        <v>4.27642406890735</v>
+        <v>4.286305126590811</v>
       </c>
       <c r="C120" t="n">
-        <v>1.983362756485836e-09</v>
+        <v>2.057543009686877e-09</v>
       </c>
     </row>
     <row r="121">
@@ -1692,10 +1692,10 @@
         <v>119</v>
       </c>
       <c r="B121" t="n">
-        <v>4.28036620813926</v>
+        <v>4.29024726582272</v>
       </c>
       <c r="C121" t="n">
-        <v>1.576399079276723e-09</v>
+        <v>1.618580718945491e-09</v>
       </c>
     </row>
     <row r="122">
@@ -1703,10 +1703,10 @@
         <v>120</v>
       </c>
       <c r="B122" t="n">
-        <v>4.28891036643103</v>
+        <v>4.298731435039221</v>
       </c>
       <c r="C122" t="n">
-        <v>1.227014069021145e-09</v>
+        <v>1.263706815187666e-09</v>
       </c>
     </row>
     <row r="123">
@@ -1714,10 +1714,10 @@
         <v>121</v>
       </c>
       <c r="B123" t="n">
-        <v>4.293495245755098</v>
+        <v>4.303359163702766</v>
       </c>
       <c r="C123" t="n">
-        <v>1.282625950640158e-09</v>
+        <v>1.323955884195478e-09</v>
       </c>
     </row>
     <row r="124">
@@ -1725,10 +1725,10 @@
         <v>122</v>
       </c>
       <c r="B124" t="n">
-        <v>4.297651631684394</v>
+        <v>4.307472700292585</v>
       </c>
       <c r="C124" t="n">
-        <v>1.602944040380763e-09</v>
+        <v>1.657003761966599e-09</v>
       </c>
     </row>
     <row r="125">
@@ -1736,10 +1736,10 @@
         <v>123</v>
       </c>
       <c r="B125" t="n">
-        <v>4.300136893374075</v>
+        <v>4.309957961982268</v>
       </c>
       <c r="C125" t="n">
-        <v>2.166136475223322e-09</v>
+        <v>2.23758441278612e-09</v>
       </c>
     </row>
     <row r="126">
@@ -1747,10 +1747,10 @@
         <v>124</v>
       </c>
       <c r="B126" t="n">
-        <v>4.300239731788821</v>
+        <v>4.310129359340176</v>
       </c>
       <c r="C126" t="n">
-        <v>2.095708170541487e-09</v>
+        <v>2.161195998542675e-09</v>
       </c>
     </row>
     <row r="127">
@@ -1758,10 +1758,10 @@
         <v>125</v>
       </c>
       <c r="B127" t="n">
-        <v>4.30191942589633</v>
+        <v>4.311757634240313</v>
       </c>
       <c r="C127" t="n">
-        <v>3.353447934944005e-09</v>
+        <v>3.472186260106773e-09</v>
       </c>
     </row>
     <row r="128">
@@ -1769,10 +1769,10 @@
         <v>126</v>
       </c>
       <c r="B128" t="n">
-        <v>4.306187220108267</v>
+        <v>4.31604256818804</v>
       </c>
       <c r="C128" t="n">
-        <v>6.109023120325319e-09</v>
+        <v>6.333542671146087e-09</v>
       </c>
     </row>
     <row r="129">
@@ -1780,10 +1780,10 @@
         <v>127</v>
       </c>
       <c r="B129" t="n">
-        <v>4.308783890080591</v>
+        <v>4.318613528556677</v>
       </c>
       <c r="C129" t="n">
-        <v>6.630253796639896e-09</v>
+        <v>6.880555589778081e-09</v>
       </c>
     </row>
     <row r="130">
@@ -1791,10 +1791,10 @@
         <v>128</v>
       </c>
       <c r="B130" t="n">
-        <v>4.310729250092858</v>
+        <v>4.320584598172632</v>
       </c>
       <c r="C130" t="n">
-        <v>6.929827522102793e-09</v>
+        <v>7.163984546968087e-09</v>
       </c>
     </row>
     <row r="131">
@@ -1802,10 +1802,10 @@
         <v>129</v>
       </c>
       <c r="B131" t="n">
-        <v>4.31302597468884</v>
+        <v>4.322898462504404</v>
       </c>
       <c r="C131" t="n">
-        <v>7.874530158174595e-09</v>
+        <v>8.111478749139536e-09</v>
       </c>
     </row>
     <row r="132">
@@ -1813,10 +1813,10 @@
         <v>130</v>
       </c>
       <c r="B132" t="n">
-        <v>4.315699773472222</v>
+        <v>4.325555121551995</v>
       </c>
       <c r="C132" t="n">
-        <v>8.883019410291674e-09</v>
+        <v>9.199024009278202e-09</v>
       </c>
     </row>
     <row r="133">
@@ -1824,10 +1824,10 @@
         <v>131</v>
       </c>
       <c r="B133" t="n">
-        <v>4.318107906350845</v>
+        <v>4.327954684562723</v>
       </c>
       <c r="C133" t="n">
-        <v>9.286159906213232e-09</v>
+        <v>9.599643886575006e-09</v>
       </c>
     </row>
     <row r="134">
@@ -1835,10 +1835,10 @@
         <v>132</v>
       </c>
       <c r="B134" t="n">
-        <v>4.320910253152659</v>
+        <v>4.330782740968223</v>
       </c>
       <c r="C134" t="n">
-        <v>8.896855646469295e-09</v>
+        <v>9.193078022764176e-09</v>
       </c>
     </row>
     <row r="135">
@@ -1846,10 +1846,10 @@
         <v>133</v>
       </c>
       <c r="B135" t="n">
-        <v>4.323318386031281</v>
+        <v>4.33318230397895</v>
       </c>
       <c r="C135" t="n">
-        <v>8.031340809997403e-09</v>
+        <v>8.321240106846555e-09</v>
       </c>
     </row>
     <row r="136">
@@ -1857,10 +1857,10 @@
         <v>134</v>
       </c>
       <c r="B136" t="n">
-        <v>4.327757577601127</v>
+        <v>4.337638635284587</v>
       </c>
       <c r="C136" t="n">
-        <v>6.339683653956771e-09</v>
+        <v>6.574471589423951e-09</v>
       </c>
     </row>
     <row r="137">
@@ -1868,10 +1868,10 @@
         <v>135</v>
       </c>
       <c r="B137" t="n">
-        <v>4.331931103266214</v>
+        <v>4.341752171874406</v>
       </c>
       <c r="C137" t="n">
-        <v>4.4043460844517e-09</v>
+        <v>4.614098084398461e-09</v>
       </c>
     </row>
     <row r="138">
@@ -1879,10 +1879,10 @@
         <v>136</v>
       </c>
       <c r="B138" t="n">
-        <v>4.340535250633251</v>
+        <v>4.350407738448815</v>
       </c>
       <c r="C138" t="n">
-        <v>2.945369080118851e-09</v>
+        <v>3.039540383907111e-09</v>
       </c>
     </row>
     <row r="139">
@@ -1890,10 +1890,10 @@
         <v>137</v>
       </c>
       <c r="B139" t="n">
-        <v>4.344845894184665</v>
+        <v>4.354692672396543</v>
       </c>
       <c r="C139" t="n">
-        <v>2.361721791498696e-09</v>
+        <v>2.431324117198909e-09</v>
       </c>
     </row>
     <row r="140">
@@ -1901,10 +1901,10 @@
         <v>138</v>
       </c>
       <c r="B140" t="n">
-        <v>4.348762323812888</v>
+        <v>4.358634811628452</v>
       </c>
       <c r="C140" t="n">
-        <v>1.901907263964037e-09</v>
+        <v>1.961510345469901e-09</v>
       </c>
     </row>
     <row r="141">
@@ -1912,10 +1912,10 @@
         <v>139</v>
       </c>
       <c r="B141" t="n">
-        <v>4.357083665539375</v>
+        <v>4.366947583487043</v>
       </c>
       <c r="C141" t="n">
-        <v>1.558444373191196e-09</v>
+        <v>1.614642300250774e-09</v>
       </c>
     </row>
     <row r="142">
@@ -1923,10 +1923,10 @@
         <v>140</v>
       </c>
       <c r="B142" t="n">
-        <v>4.362054188918739</v>
+        <v>4.371918106866407</v>
       </c>
       <c r="C142" t="n">
-        <v>1.712811513453436e-09</v>
+        <v>1.764871997196404e-09</v>
       </c>
     </row>
     <row r="143">
@@ -1934,10 +1934,10 @@
         <v>141</v>
       </c>
       <c r="B143" t="n">
-        <v>4.365250749643743</v>
+        <v>4.375088957987725</v>
       </c>
       <c r="C143" t="n">
-        <v>6.328057112837488e-09</v>
+        <v>6.562044961820287e-09</v>
       </c>
     </row>
     <row r="144">
@@ -1945,10 +1945,10 @@
         <v>142</v>
       </c>
       <c r="B144" t="n">
-        <v>4.367855989483961</v>
+        <v>4.377745617035317</v>
       </c>
       <c r="C144" t="n">
-        <v>1.188336138763166e-08</v>
+        <v>1.232172228251438e-08</v>
       </c>
     </row>
     <row r="145">
@@ -1956,10 +1956,10 @@
         <v>143</v>
       </c>
       <c r="B145" t="n">
-        <v>4.369681371345694</v>
+        <v>4.379545289293363</v>
       </c>
       <c r="C145" t="n">
-        <v>1.312406561287208e-08</v>
+        <v>1.361584680249275e-08</v>
       </c>
     </row>
     <row r="146">
@@ -1967,10 +1967,10 @@
         <v>144</v>
       </c>
       <c r="B146" t="n">
-        <v>4.370624056814194</v>
+        <v>4.380487974761863</v>
       </c>
       <c r="C146" t="n">
-        <v>1.376048412698444e-08</v>
+        <v>1.430131948571118e-08</v>
       </c>
     </row>
     <row r="147">
@@ -1978,10 +1978,10 @@
         <v>145</v>
       </c>
       <c r="B147" t="n">
-        <v>4.371001131001594</v>
+        <v>4.380830769477681</v>
       </c>
       <c r="C147" t="n">
-        <v>1.344186185594265e-08</v>
+        <v>1.399009071519952e-08</v>
       </c>
     </row>
     <row r="148">
@@ -1989,10 +1989,10 @@
         <v>146</v>
       </c>
       <c r="B148" t="n">
-        <v>4.371241087302666</v>
+        <v>4.381087865514544</v>
       </c>
       <c r="C148" t="n">
-        <v>1.343815642723059e-08</v>
+        <v>1.395117460399999e-08</v>
       </c>
     </row>
     <row r="149">
@@ -2000,10 +2000,10 @@
         <v>147</v>
       </c>
       <c r="B149" t="n">
-        <v>4.37310074863598</v>
+        <v>4.382973236451544</v>
       </c>
       <c r="C149" t="n">
-        <v>1.653550956973315e-08</v>
+        <v>1.714974499236742e-08</v>
       </c>
     </row>
     <row r="150">
@@ -2011,10 +2011,10 @@
         <v>148</v>
       </c>
       <c r="B150" t="n">
-        <v>4.37479758247928</v>
+        <v>4.384687210030635</v>
       </c>
       <c r="C150" t="n">
-        <v>1.715118286387361e-08</v>
+        <v>1.78359252292385e-08</v>
       </c>
     </row>
     <row r="151">
@@ -2022,10 +2022,10 @@
         <v>149</v>
       </c>
       <c r="B151" t="n">
-        <v>4.376545835529954</v>
+        <v>4.386401183609727</v>
       </c>
       <c r="C151" t="n">
-        <v>1.707553677248664e-08</v>
+        <v>1.769595641620956e-08</v>
       </c>
     </row>
     <row r="152">
@@ -2033,10 +2033,10 @@
         <v>150</v>
       </c>
       <c r="B152" t="n">
-        <v>4.378156970694299</v>
+        <v>4.388029458509863</v>
       </c>
       <c r="C152" t="n">
-        <v>1.712793845612685e-08</v>
+        <v>1.783886158419674e-08</v>
       </c>
     </row>
     <row r="153">
@@ -2044,10 +2044,10 @@
         <v>151</v>
       </c>
       <c r="B153" t="n">
-        <v>4.379236774049127</v>
+        <v>4.389057842657317</v>
       </c>
       <c r="C153" t="n">
-        <v>1.735877172921261e-08</v>
+        <v>1.796619517966836e-08</v>
       </c>
     </row>
     <row r="154">
@@ -2055,10 +2055,10 @@
         <v>152</v>
       </c>
       <c r="B154" t="n">
-        <v>4.379845234669704</v>
+        <v>4.389743432088954</v>
       </c>
       <c r="C154" t="n">
-        <v>1.708582052068395e-08</v>
+        <v>1.770294874955605e-08</v>
       </c>
     </row>
     <row r="155">
@@ -2066,10 +2066,10 @@
         <v>153</v>
       </c>
       <c r="B155" t="n">
-        <v>4.382493323849399</v>
+        <v>4.392314392457591</v>
       </c>
       <c r="C155" t="n">
-        <v>1.663959827122746e-08</v>
+        <v>1.724988749985525e-08</v>
       </c>
     </row>
     <row r="156">
@@ -2077,10 +2077,10 @@
         <v>154</v>
       </c>
       <c r="B156" t="n">
-        <v>4.386743978325545</v>
+        <v>4.396599326405318</v>
       </c>
       <c r="C156" t="n">
-        <v>1.369583564939895e-08</v>
+        <v>1.421744318818857e-08</v>
       </c>
     </row>
     <row r="157">
@@ -2088,10 +2088,10 @@
         <v>155</v>
       </c>
       <c r="B157" t="n">
-        <v>4.391003202669586</v>
+        <v>4.400884260353045</v>
       </c>
       <c r="C157" t="n">
-        <v>9.957402966479441e-09</v>
+        <v>1.032793175829233e-08</v>
       </c>
     </row>
     <row r="158">
@@ -2099,10 +2099,10 @@
         <v>156</v>
       </c>
       <c r="B158" t="n">
-        <v>4.395073889919927</v>
+        <v>4.404912098263909</v>
       </c>
       <c r="C158" t="n">
-        <v>7.176656635647825e-09</v>
+        <v>7.419665239828398e-09</v>
       </c>
     </row>
     <row r="159">
@@ -2110,10 +2110,10 @@
         <v>157</v>
       </c>
       <c r="B159" t="n">
-        <v>4.396290811161082</v>
+        <v>4.406111879769273</v>
       </c>
       <c r="C159" t="n">
-        <v>7.448286426339364e-09</v>
+        <v>7.721803519554743e-09</v>
       </c>
     </row>
     <row r="160">
@@ -2121,10 +2121,10 @@
         <v>158</v>
       </c>
       <c r="B160" t="n">
-        <v>4.399607350036622</v>
+        <v>4.4094541282485</v>
       </c>
       <c r="C160" t="n">
-        <v>5.679867616070617e-09</v>
+        <v>5.877455867064893e-09</v>
       </c>
     </row>
     <row r="161">
@@ -2132,10 +2132,10 @@
         <v>159</v>
       </c>
       <c r="B161" t="n">
-        <v>4.403952273059619</v>
+        <v>4.413824760875183</v>
       </c>
       <c r="C161" t="n">
-        <v>5.602116000737827e-09</v>
+        <v>5.795888029595504e-09</v>
       </c>
     </row>
     <row r="162">
@@ -2143,10 +2143,10 @@
         <v>160</v>
       </c>
       <c r="B162" t="n">
-        <v>4.406326126466659</v>
+        <v>4.41622432388591</v>
       </c>
       <c r="C162" t="n">
-        <v>5.359305994811429e-09</v>
+        <v>5.571777438484798e-09</v>
       </c>
     </row>
     <row r="163">
@@ -2154,10 +2154,10 @@
         <v>161</v>
       </c>
       <c r="B163" t="n">
-        <v>4.408974215646356</v>
+        <v>4.418795284254546</v>
       </c>
       <c r="C163" t="n">
-        <v>4.902051973160701e-09</v>
+        <v>5.072162758614583e-09</v>
       </c>
     </row>
     <row r="164">
@@ -2165,10 +2165,10 @@
         <v>162</v>
       </c>
       <c r="B164" t="n">
-        <v>4.411759422712378</v>
+        <v>4.421623340660047</v>
       </c>
       <c r="C164" t="n">
-        <v>4.517494784516444e-09</v>
+        <v>4.686566074951231e-09</v>
       </c>
     </row>
     <row r="165">
@@ -2176,10 +2176,10 @@
         <v>163</v>
       </c>
       <c r="B165" t="n">
-        <v>4.41349053602726</v>
+        <v>4.423337314239138</v>
       </c>
       <c r="C165" t="n">
-        <v>4.28159381798726e-09</v>
+        <v>4.443635359940999e-09</v>
       </c>
     </row>
     <row r="166">
@@ -2187,10 +2187,10 @@
         <v>164</v>
       </c>
       <c r="B166" t="n">
-        <v>4.414321813213119</v>
+        <v>4.424194301028683</v>
       </c>
       <c r="C166" t="n">
-        <v>4.094327495797318e-09</v>
+        <v>4.233104719368513e-09</v>
       </c>
     </row>
     <row r="167">
@@ -2198,10 +2198,10 @@
         <v>165</v>
       </c>
       <c r="B167" t="n">
-        <v>4.419515153157765</v>
+        <v>4.429336221765956</v>
       </c>
       <c r="C167" t="n">
-        <v>3.377938148344026e-09</v>
+        <v>3.512791698451114e-09</v>
       </c>
     </row>
     <row r="168">
@@ -2209,10 +2209,10 @@
         <v>166</v>
       </c>
       <c r="B168" t="n">
-        <v>4.421511932377406</v>
+        <v>4.431392990060865</v>
       </c>
       <c r="C168" t="n">
-        <v>3.032955453605546e-09</v>
+        <v>3.136437293810097e-09</v>
       </c>
     </row>
     <row r="169">
@@ -2220,10 +2220,10 @@
         <v>167</v>
       </c>
       <c r="B169" t="n">
-        <v>4.430664551289752</v>
+        <v>4.440477050030048</v>
       </c>
       <c r="C169" t="n">
-        <v>1.875208606145355e-09</v>
+        <v>1.944820975849888e-09</v>
       </c>
     </row>
     <row r="170">
@@ -2231,10 +2231,10 @@
         <v>168</v>
       </c>
       <c r="B170" t="n">
-        <v>4.447624319854858</v>
+        <v>4.457445388463049</v>
       </c>
       <c r="C170" t="n">
-        <v>1.319179928398214e-09</v>
+        <v>1.35841731400521e-09</v>
       </c>
     </row>
     <row r="171">
@@ -2242,10 +2242,10 @@
         <v>169</v>
       </c>
       <c r="B171" t="n">
-        <v>4.464926883135782</v>
+        <v>4.474756521611869</v>
       </c>
       <c r="C171" t="n">
-        <v>1.379355379726398e-09</v>
+        <v>1.415262274443608e-09</v>
       </c>
     </row>
     <row r="172">
@@ -2253,10 +2253,10 @@
         <v>170</v>
       </c>
       <c r="B172" t="n">
-        <v>4.482066618926692</v>
+        <v>4.491896257402779</v>
       </c>
       <c r="C172" t="n">
-        <v>1.748419379674486e-09</v>
+        <v>1.807134176229027e-09</v>
       </c>
     </row>
     <row r="173">
@@ -2264,10 +2264,10 @@
         <v>171</v>
       </c>
       <c r="B173" t="n">
-        <v>4.490182283823687</v>
+        <v>4.500037631903461</v>
       </c>
       <c r="C173" t="n">
-        <v>2.197978550149508e-09</v>
+        <v>2.283753792948041e-09</v>
       </c>
     </row>
     <row r="174">
@@ -2275,10 +2275,10 @@
         <v>172</v>
       </c>
       <c r="B174" t="n">
-        <v>4.493233156794469</v>
+        <v>4.503122784345824</v>
       </c>
       <c r="C174" t="n">
-        <v>2.415001487422031e-09</v>
+        <v>2.486463089647494e-09</v>
       </c>
     </row>
     <row r="175">
@@ -2286,10 +2286,10 @@
         <v>173</v>
       </c>
       <c r="B175" t="n">
-        <v>4.499292053396556</v>
+        <v>4.509121691872643</v>
       </c>
       <c r="C175" t="n">
-        <v>3.247238736030675e-09</v>
+        <v>3.345744888570892e-09</v>
       </c>
     </row>
     <row r="176">
@@ -2297,10 +2297,10 @@
         <v>174</v>
       </c>
       <c r="B176" t="n">
-        <v>4.507699093801998</v>
+        <v>4.517520162410189</v>
       </c>
       <c r="C176" t="n">
-        <v>4.737125319474028e-09</v>
+        <v>4.897659411951181e-09</v>
       </c>
     </row>
     <row r="177">
@@ -2308,10 +2308,10 @@
         <v>175</v>
       </c>
       <c r="B177" t="n">
-        <v>4.512069726428679</v>
+        <v>4.521890795036872</v>
       </c>
       <c r="C177" t="n">
-        <v>5.551493393243352e-09</v>
+        <v>5.74413934691785e-09</v>
       </c>
     </row>
     <row r="178">
@@ -2319,10 +2319,10 @@
         <v>176</v>
       </c>
       <c r="B178" t="n">
-        <v>4.516303241169035</v>
+        <v>4.526175728984599</v>
       </c>
       <c r="C178" t="n">
-        <v>6.695636205611794e-09</v>
+        <v>6.94164060383979e-09</v>
       </c>
     </row>
     <row r="179">
@@ -2330,10 +2330,10 @@
         <v>177</v>
       </c>
       <c r="B179" t="n">
-        <v>4.520571035380971</v>
+        <v>4.530460662932327</v>
       </c>
       <c r="C179" t="n">
-        <v>8.830348951293252e-09</v>
+        <v>9.133980812577891e-09</v>
       </c>
     </row>
     <row r="180">
@@ -2341,10 +2341,10 @@
         <v>178</v>
       </c>
       <c r="B180" t="n">
-        <v>4.520622454588343</v>
+        <v>4.534574199522145</v>
       </c>
       <c r="C180" t="n">
-        <v>8.777865315688495e-09</v>
+        <v>1.355203214112365e-08</v>
       </c>
     </row>
     <row r="181">
@@ -2352,10 +2352,10 @@
         <v>179</v>
       </c>
       <c r="B181" t="n">
-        <v>4.524727421310266</v>
+        <v>4.539030530827781</v>
       </c>
       <c r="C181" t="n">
-        <v>1.307339156630692e-08</v>
+        <v>1.716387290148996e-08</v>
       </c>
     </row>
     <row r="182">
@@ -2363,10 +2363,10 @@
         <v>180</v>
       </c>
       <c r="B182" t="n">
-        <v>4.529132333408531</v>
+        <v>4.543486862133419</v>
       </c>
       <c r="C182" t="n">
-        <v>1.650525403392939e-08</v>
+        <v>2.204226259871044e-08</v>
       </c>
     </row>
     <row r="183">
@@ -2374,10 +2374,10 @@
         <v>181</v>
       </c>
       <c r="B183" t="n">
-        <v>4.533597234582063</v>
+        <v>4.545800726465191</v>
       </c>
       <c r="C183" t="n">
-        <v>2.133432328136631e-08</v>
+        <v>2.57299540882973e-08</v>
       </c>
     </row>
     <row r="184">
@@ -2385,10 +2385,10 @@
         <v>182</v>
       </c>
       <c r="B184" t="n">
-        <v>4.535979657856999</v>
+        <v>4.549914263055009</v>
       </c>
       <c r="C184" t="n">
-        <v>2.479974384696504e-08</v>
+        <v>2.474018701865464e-08</v>
       </c>
     </row>
     <row r="185">
@@ -2396,10 +2396,10 @@
         <v>183</v>
       </c>
       <c r="B185" t="n">
-        <v>4.540033205371549</v>
+        <v>4.551628236634101</v>
       </c>
       <c r="C185" t="n">
-        <v>2.382753066297808e-08</v>
+        <v>2.4254862796832e-08</v>
       </c>
     </row>
     <row r="186">
@@ -2407,10 +2407,10 @@
         <v>184</v>
       </c>
       <c r="B186" t="n">
-        <v>4.541790028290118</v>
+        <v>4.553942100965873</v>
       </c>
       <c r="C186" t="n">
-        <v>2.333427826057034e-08</v>
+        <v>2.262850341726082e-08</v>
       </c>
     </row>
     <row r="187">
@@ -2418,10 +2418,10 @@
         <v>185</v>
       </c>
       <c r="B187" t="n">
-        <v>4.54406961315031</v>
+        <v>4.558912624345237</v>
       </c>
       <c r="C187" t="n">
-        <v>2.177548807613897e-08</v>
+        <v>1.932963214071757e-08</v>
       </c>
     </row>
     <row r="188">
@@ -2429,10 +2429,10 @@
         <v>186</v>
       </c>
       <c r="B188" t="n">
-        <v>4.54908298586915</v>
+        <v>4.562940462256101</v>
       </c>
       <c r="C188" t="n">
-        <v>1.862479778203729e-08</v>
+        <v>1.813373370578346e-08</v>
       </c>
     </row>
     <row r="189">
@@ -2440,10 +2440,10 @@
         <v>187</v>
       </c>
       <c r="B189" t="n">
-        <v>4.553067974440538</v>
+        <v>4.56688260148801</v>
       </c>
       <c r="C189" t="n">
-        <v>1.747625478975628e-08</v>
+        <v>1.537917628883393e-08</v>
       </c>
     </row>
     <row r="190">
@@ -2451,10 +2451,10 @@
         <v>188</v>
       </c>
       <c r="B190" t="n">
-        <v>4.557044393144028</v>
+        <v>4.571424631472602</v>
       </c>
       <c r="C190" t="n">
-        <v>1.479846885506678e-08</v>
+        <v>1.206183636123905e-08</v>
       </c>
     </row>
     <row r="191">
@@ -2462,10 +2462,10 @@
         <v>189</v>
       </c>
       <c r="B191" t="n">
-        <v>4.561577853260723</v>
+        <v>4.575623866741375</v>
       </c>
       <c r="C191" t="n">
-        <v>1.161427989534989e-08</v>
+        <v>1.000873659144901e-08</v>
       </c>
     </row>
     <row r="192">
@@ -2473,10 +2473,10 @@
         <v>190</v>
       </c>
       <c r="B192" t="n">
-        <v>4.56575137892581</v>
+        <v>4.580080198047011</v>
       </c>
       <c r="C192" t="n">
-        <v>9.674768959209141e-09</v>
+        <v>7.395917019544106e-09</v>
       </c>
     </row>
     <row r="193">
@@ -2484,10 +2484,10 @@
         <v>191</v>
       </c>
       <c r="B193" t="n">
-        <v>4.570207710231447</v>
+        <v>4.58402233727892</v>
       </c>
       <c r="C193" t="n">
-        <v>7.017408482149595e-09</v>
+        <v>4.992696002919257e-09</v>
       </c>
     </row>
     <row r="194">
@@ -2495,10 +2495,10 @@
         <v>192</v>
       </c>
       <c r="B194" t="n">
-        <v>4.570233419835134</v>
+        <v>4.588478668584557</v>
       </c>
       <c r="C194" t="n">
-        <v>7.241393180487783e-09</v>
+        <v>3.037015864243552e-09</v>
       </c>
     </row>
     <row r="195">
@@ -2506,10 +2506,10 @@
         <v>193</v>
       </c>
       <c r="B195" t="n">
-        <v>4.574141279595461</v>
+        <v>4.588650065942466</v>
       </c>
       <c r="C195" t="n">
-        <v>4.823294619594125e-09</v>
+        <v>3.056861023503883e-09</v>
       </c>
     </row>
     <row r="196">
@@ -2517,10 +2517,10 @@
         <v>194</v>
       </c>
       <c r="B196" t="n">
-        <v>4.578657599976365</v>
+        <v>4.592078013100648</v>
       </c>
       <c r="C196" t="n">
-        <v>2.932394604413256e-09</v>
+        <v>2.283944918519029e-09</v>
       </c>
     </row>
     <row r="197">
@@ -2528,10 +2528,10 @@
         <v>195</v>
       </c>
       <c r="B197" t="n">
-        <v>4.578820427466379</v>
+        <v>4.593277794606012</v>
       </c>
       <c r="C197" t="n">
-        <v>2.962996682478334e-09</v>
+        <v>2.152737729770367e-09</v>
       </c>
     </row>
     <row r="198">
@@ -2539,10 +2539,10 @@
         <v>196</v>
       </c>
       <c r="B198" t="n">
-        <v>4.582256944492457</v>
+        <v>4.593534890642876</v>
       </c>
       <c r="C198" t="n">
-        <v>2.211236963376271e-09</v>
+        <v>2.020999231092112e-09</v>
       </c>
     </row>
     <row r="199">
@@ -2550,10 +2550,10 @@
         <v>197</v>
       </c>
       <c r="B199" t="n">
-        <v>4.583388167054657</v>
+        <v>4.596534344406285</v>
       </c>
       <c r="C199" t="n">
-        <v>2.091277791436113e-09</v>
+        <v>3.379196267552245e-09</v>
       </c>
     </row>
     <row r="200">
@@ -2561,10 +2561,10 @@
         <v>198</v>
       </c>
       <c r="B200" t="n">
-        <v>4.583662402827311</v>
+        <v>4.597819824590603</v>
       </c>
       <c r="C200" t="n">
-        <v>1.958712459939463e-09</v>
+        <v>2.599047297742881e-09</v>
       </c>
     </row>
     <row r="201">
@@ -2572,10 +2572,10 @@
         <v>199</v>
       </c>
       <c r="B201" t="n">
-        <v>4.586636146987034</v>
+        <v>4.601504867785649</v>
       </c>
       <c r="C201" t="n">
-        <v>3.257384988549247e-09</v>
+        <v>4.040049199671605e-09</v>
       </c>
     </row>
     <row r="202">
@@ -2583,10 +2583,10 @@
         <v>200</v>
       </c>
       <c r="B202" t="n">
-        <v>4.58796447651083</v>
+        <v>4.603133142685785</v>
       </c>
       <c r="C202" t="n">
-        <v>2.512109042456018e-09</v>
+        <v>3.816701965978032e-09</v>
       </c>
     </row>
     <row r="203">
@@ -2594,10 +2594,10 @@
         <v>201</v>
       </c>
       <c r="B203" t="n">
-        <v>4.591649519705875</v>
+        <v>4.604932814943831</v>
       </c>
       <c r="C203" t="n">
-        <v>3.906149721080634e-09</v>
+        <v>3.645802309101747e-09</v>
       </c>
     </row>
     <row r="204">
@@ -2605,10 +2605,10 @@
         <v>202</v>
       </c>
       <c r="B204" t="n">
-        <v>4.593303504209699</v>
+        <v>4.606646788522922</v>
       </c>
       <c r="C204" t="n">
-        <v>3.691916736333377e-09</v>
+        <v>3.586428606503706e-09</v>
       </c>
     </row>
     <row r="205">
@@ -2616,10 +2616,10 @@
         <v>203</v>
       </c>
       <c r="B205" t="n">
-        <v>4.595068896996162</v>
+        <v>4.608446460780968</v>
       </c>
       <c r="C205" t="n">
-        <v>3.525849211429824e-09</v>
+        <v>3.487665147330097e-09</v>
       </c>
     </row>
     <row r="206">
@@ -2627,10 +2627,10 @@
         <v>204</v>
       </c>
       <c r="B206" t="n">
-        <v>4.596757160971567</v>
+        <v>4.610160434360059</v>
       </c>
       <c r="C206" t="n">
-        <v>3.473759463981269e-09</v>
+        <v>3.291458425316731e-09</v>
       </c>
     </row>
     <row r="207">
@@ -2638,10 +2638,10 @@
         <v>205</v>
       </c>
       <c r="B207" t="n">
-        <v>4.598633962040672</v>
+        <v>4.611617311902286</v>
       </c>
       <c r="C207" t="n">
-        <v>3.363608058011213e-09</v>
+        <v>3.317222384767839e-09</v>
       </c>
     </row>
     <row r="208">
@@ -2649,10 +2649,10 @@
         <v>206</v>
       </c>
       <c r="B208" t="n">
-        <v>4.600339365751868</v>
+        <v>4.615987944528968</v>
       </c>
       <c r="C208" t="n">
-        <v>3.174343881517211e-09</v>
+        <v>1.929551603478648e-09</v>
       </c>
     </row>
     <row r="209">
@@ -2660,10 +2660,10 @@
         <v>207</v>
       </c>
       <c r="B209" t="n">
-        <v>4.601719114483036</v>
+        <v>4.620529974513559</v>
       </c>
       <c r="C209" t="n">
-        <v>3.205391100800579e-09</v>
+        <v>8.343216448352301e-10</v>
       </c>
     </row>
     <row r="210">
@@ -2671,10 +2671,10 @@
         <v>208</v>
       </c>
       <c r="B210" t="n">
-        <v>4.606132596449195</v>
+        <v>4.622929537524286</v>
       </c>
       <c r="C210" t="n">
-        <v>1.863129605092539e-09</v>
+        <v>5.320653329956697e-10</v>
       </c>
     </row>
     <row r="211">
@@ -2682,10 +2682,10 @@
         <v>209</v>
       </c>
       <c r="B211" t="n">
-        <v>4.610666056565891</v>
+        <v>4.623272332240105</v>
       </c>
       <c r="C211" t="n">
-        <v>8.052790988331461e-10</v>
+        <v>7.441977538229489e-10</v>
       </c>
     </row>
     <row r="212">
@@ -2693,10 +2693,10 @@
         <v>210</v>
       </c>
       <c r="B212" t="n">
-        <v>4.613091329180303</v>
+        <v>4.623786524313832</v>
       </c>
       <c r="C212" t="n">
-        <v>5.162979224222011e-10</v>
+        <v>4.673389450393752e-10</v>
       </c>
     </row>
     <row r="213">
@@ -2704,10 +2704,10 @@
         <v>211</v>
       </c>
       <c r="B213" t="n">
-        <v>4.613451263631914</v>
+        <v>4.625586196571877</v>
       </c>
       <c r="C213" t="n">
-        <v>7.195371859349122e-10</v>
+        <v>3.592932620014563e-10</v>
       </c>
     </row>
     <row r="214">
@@ -2715,10 +2715,10 @@
         <v>212</v>
       </c>
       <c r="B214" t="n">
-        <v>4.613896896762476</v>
+        <v>4.628928445051105</v>
       </c>
       <c r="C214" t="n">
-        <v>4.500372784534426e-10</v>
+        <v>3.093425184771638e-10</v>
       </c>
     </row>
     <row r="215">
@@ -2726,10 +2726,10 @@
         <v>213</v>
       </c>
       <c r="B215" t="n">
-        <v>4.615696569020522</v>
+        <v>4.631670802777651</v>
       </c>
       <c r="C215" t="n">
-        <v>3.491106601529047e-10</v>
+        <v>2.859160840821399e-10</v>
       </c>
     </row>
     <row r="216">
@@ -2737,10 +2737,10 @@
         <v>214</v>
       </c>
       <c r="B216" t="n">
-        <v>4.619038817499749</v>
+        <v>4.64049776670997</v>
       </c>
       <c r="C216" t="n">
-        <v>3.019144162574303e-10</v>
+        <v>2.716466855610167e-10</v>
       </c>
     </row>
     <row r="217">
@@ -2748,10 +2748,10 @@
         <v>215</v>
       </c>
       <c r="B217" t="n">
-        <v>4.621798314962087</v>
+        <v>4.649667525358106</v>
       </c>
       <c r="C217" t="n">
-        <v>2.761128157587211e-10</v>
+        <v>3.209904490921965e-10</v>
       </c>
     </row>
     <row r="218">
@@ -2759,10 +2759,10 @@
         <v>216</v>
       </c>
       <c r="B218" t="n">
-        <v>4.630650988498092</v>
+        <v>4.658494489290425</v>
       </c>
       <c r="C218" t="n">
-        <v>2.609860086475619e-10</v>
+        <v>3.124323279745904e-10</v>
       </c>
     </row>
     <row r="219">
@@ -2770,10 +2770,10 @@
         <v>217</v>
       </c>
       <c r="B219" t="n">
-        <v>4.639795037542543</v>
+        <v>4.667921343975426</v>
       </c>
       <c r="C219" t="n">
-        <v>3.130487681170939e-10</v>
+        <v>3.387081070018199e-10</v>
       </c>
     </row>
     <row r="220">
@@ -2781,32 +2781,10 @@
         <v>218</v>
       </c>
       <c r="B220" t="n">
-        <v>4.64860486173907</v>
+        <v>4.671263592454653</v>
       </c>
       <c r="C220" t="n">
-        <v>3.028818456686809e-10</v>
-      </c>
-    </row>
-    <row r="221">
-      <c r="A221" s="1" t="n">
-        <v>219</v>
-      </c>
-      <c r="B221" t="n">
-        <v>4.658074565763548</v>
-      </c>
-      <c r="C221" t="n">
-        <v>3.314471230771398e-10</v>
-      </c>
-    </row>
-    <row r="222">
-      <c r="A222" s="1" t="n">
-        <v>220</v>
-      </c>
-      <c r="B222" t="n">
-        <v>4.661373964903298</v>
-      </c>
-      <c r="C222" t="n">
-        <v>3.772403988185964e-10</v>
+        <v>3.86835976872057e-10</v>
       </c>
     </row>
   </sheetData>

--- a/legendre_out/DATA/p2/p2IntegrandDataPoints3.500000.xlsx
+++ b/legendre_out/DATA/p2/p2IntegrandDataPoints3.500000.xlsx
@@ -386,7 +386,7 @@
         <v>3.434374559103622</v>
       </c>
       <c r="C2" t="n">
-        <v>4.319554374348619e-09</v>
+        <v>4.241964730144371e-09</v>
       </c>
     </row>
     <row r="3">
@@ -397,7 +397,7 @@
         <v>3.43865949305135</v>
       </c>
       <c r="C3" t="n">
-        <v>6.623814651801582e-09</v>
+        <v>6.629551424624197e-09</v>
       </c>
     </row>
     <row r="4">
@@ -408,7 +408,7 @@
         <v>3.440287767951486</v>
       </c>
       <c r="C4" t="n">
-        <v>7.872029559762776e-09</v>
+        <v>7.717726248424029e-09</v>
       </c>
     </row>
     <row r="5">
@@ -419,7 +419,7 @@
         <v>3.443801413788623</v>
       </c>
       <c r="C5" t="n">
-        <v>1.095675618831943e-08</v>
+        <v>1.083334547164812e-08</v>
       </c>
     </row>
     <row r="6">
@@ -430,7 +430,7 @@
         <v>3.445601086046668</v>
       </c>
       <c r="C6" t="n">
-        <v>1.163571214810871e-08</v>
+        <v>1.175153372462605e-08</v>
       </c>
     </row>
     <row r="7">
@@ -441,7 +441,7 @@
         <v>3.446372374157259</v>
       </c>
       <c r="C7" t="n">
-        <v>1.169128672740421e-08</v>
+        <v>1.185092367499622e-08</v>
       </c>
     </row>
     <row r="8">
@@ -452,7 +452,7 @@
         <v>3.450743006783942</v>
       </c>
       <c r="C8" t="n">
-        <v>1.320125872761328e-08</v>
+        <v>1.309636513177652e-08</v>
       </c>
     </row>
     <row r="9">
@@ -463,7 +463,7 @@
         <v>3.454170953942123</v>
       </c>
       <c r="C9" t="n">
-        <v>1.280784467409286e-08</v>
+        <v>1.274993520834474e-08</v>
       </c>
     </row>
     <row r="10">
@@ -474,7 +474,7 @@
         <v>3.454856543373759</v>
       </c>
       <c r="C10" t="n">
-        <v>1.166752685371875e-08</v>
+        <v>1.173223979065768e-08</v>
       </c>
     </row>
     <row r="11">
@@ -485,7 +485,7 @@
         <v>3.459227176000442</v>
       </c>
       <c r="C11" t="n">
-        <v>1.145033837635394e-08</v>
+        <v>1.166979971104368e-08</v>
       </c>
     </row>
     <row r="12">
@@ -496,7 +496,7 @@
         <v>3.463512109948169</v>
       </c>
       <c r="C12" t="n">
-        <v>9.67088042314044e-09</v>
+        <v>9.714812498589893e-09</v>
       </c>
     </row>
     <row r="13">
@@ -507,7 +507,7 @@
         <v>3.467882742574851</v>
       </c>
       <c r="C13" t="n">
-        <v>7.282516051446712e-09</v>
+        <v>7.526502423002444e-09</v>
       </c>
     </row>
     <row r="14">
@@ -518,7 +518,7 @@
         <v>3.686414373908955</v>
       </c>
       <c r="C14" t="n">
-        <v>3.063271096895389e-09</v>
+        <v>3.081838693105372e-09</v>
       </c>
     </row>
     <row r="15">
@@ -529,7 +529,7 @@
         <v>3.687271360698501</v>
       </c>
       <c r="C15" t="n">
-        <v>4.190000066894421e-09</v>
+        <v>4.203505106320318e-09</v>
       </c>
     </row>
     <row r="16">
@@ -540,7 +540,7 @@
         <v>3.689071032956547</v>
       </c>
       <c r="C16" t="n">
-        <v>4.87341790805552e-09</v>
+        <v>4.96797206963614e-09</v>
       </c>
     </row>
     <row r="17">
@@ -551,7 +551,7 @@
         <v>3.689928019746092</v>
       </c>
       <c r="C17" t="n">
-        <v>5.739651799163402e-09</v>
+        <v>5.660724866019823e-09</v>
       </c>
     </row>
     <row r="18">
@@ -562,7 +562,7 @@
         <v>3.690699307856684</v>
       </c>
       <c r="C18" t="n">
-        <v>6.892038648228434e-09</v>
+        <v>6.936777972748516e-09</v>
       </c>
     </row>
     <row r="19">
@@ -573,7 +573,7 @@
         <v>3.691641993325183</v>
       </c>
       <c r="C19" t="n">
-        <v>7.713847193432781e-09</v>
+        <v>7.690496213611732e-09</v>
       </c>
     </row>
     <row r="20">
@@ -584,7 +584,7 @@
         <v>3.692498980114729</v>
       </c>
       <c r="C20" t="n">
-        <v>1.164613421516468e-08</v>
+        <v>1.168734211902747e-08</v>
       </c>
     </row>
     <row r="21">
@@ -595,7 +595,7 @@
         <v>3.693270268225319</v>
       </c>
       <c r="C21" t="n">
-        <v>3.326448090766656e-08</v>
+        <v>3.32571700944103e-08</v>
       </c>
     </row>
     <row r="22">
@@ -606,7 +606,7 @@
         <v>3.694127255014865</v>
       </c>
       <c r="C22" t="n">
-        <v>5.241944804397132e-08</v>
+        <v>5.273251319938229e-08</v>
       </c>
     </row>
     <row r="23">
@@ -617,7 +617,7 @@
         <v>3.695841228593956</v>
       </c>
       <c r="C23" t="n">
-        <v>7.810883380069503e-08</v>
+        <v>7.832605601919165e-08</v>
       </c>
     </row>
     <row r="24">
@@ -628,7 +628,7 @@
         <v>3.697555202173048</v>
       </c>
       <c r="C24" t="n">
-        <v>7.868565430521024e-08</v>
+        <v>7.850168372904123e-08</v>
       </c>
     </row>
     <row r="25">
@@ -639,7 +639,7 @@
         <v>3.699354874431093</v>
       </c>
       <c r="C25" t="n">
-        <v>7.275314741940719e-08</v>
+        <v>7.275136635799092e-08</v>
       </c>
     </row>
     <row r="26">
@@ -650,7 +650,7 @@
         <v>3.701068848010184</v>
       </c>
       <c r="C26" t="n">
-        <v>6.878954061789129e-08</v>
+        <v>6.886585940601454e-08</v>
       </c>
     </row>
     <row r="27">
@@ -661,7 +661,7 @@
         <v>3.70286852026823</v>
       </c>
       <c r="C27" t="n">
-        <v>6.874372572980061e-08</v>
+        <v>6.863184894964307e-08</v>
       </c>
     </row>
     <row r="28">
@@ -672,7 +672,7 @@
         <v>3.703468411020912</v>
       </c>
       <c r="C28" t="n">
-        <v>6.970702098783285e-08</v>
+        <v>6.992583746922223e-08</v>
       </c>
     </row>
     <row r="29">
@@ -683,7 +683,7 @@
         <v>3.704496795168366</v>
       </c>
       <c r="C29" t="n">
-        <v>6.701005344803701e-08</v>
+        <v>6.705366314206742e-08</v>
       </c>
     </row>
     <row r="30">
@@ -694,7 +694,7 @@
         <v>3.706125070068503</v>
       </c>
       <c r="C30" t="n">
-        <v>6.732477133373267e-08</v>
+        <v>6.721236193843177e-08</v>
       </c>
     </row>
     <row r="31">
@@ -705,7 +705,7 @@
         <v>3.707839043647593</v>
       </c>
       <c r="C31" t="n">
-        <v>6.667309419473131e-08</v>
+        <v>6.646444318002219e-08</v>
       </c>
     </row>
     <row r="32">
@@ -716,7 +716,7 @@
         <v>3.709638715905639</v>
       </c>
       <c r="C32" t="n">
-        <v>6.439413733391986e-08</v>
+        <v>6.458996307579866e-08</v>
       </c>
     </row>
     <row r="33">
@@ -727,7 +727,7 @@
         <v>3.71135268948473</v>
       </c>
       <c r="C33" t="n">
-        <v>6.251339798200567e-08</v>
+        <v>6.231957084186149e-08</v>
       </c>
     </row>
     <row r="34">
@@ -738,7 +738,7 @@
         <v>3.713066663063821</v>
       </c>
       <c r="C34" t="n">
-        <v>5.793572081715619e-08</v>
+        <v>5.803531950939308e-08</v>
       </c>
     </row>
     <row r="35">
@@ -749,7 +749,7 @@
         <v>3.714609239285003</v>
       </c>
       <c r="C35" t="n">
-        <v>5.2464773876335e-08</v>
+        <v>5.253374050126275e-08</v>
       </c>
     </row>
     <row r="36">
@@ -760,7 +760,7 @@
         <v>3.716494610222004</v>
       </c>
       <c r="C36" t="n">
-        <v>4.238993270390867e-08</v>
+        <v>4.226196030333203e-08</v>
       </c>
     </row>
     <row r="37">
@@ -771,7 +771,7 @@
         <v>3.718122885122139</v>
       </c>
       <c r="C37" t="n">
-        <v>3.364617911608961e-08</v>
+        <v>3.36653550825332e-08</v>
       </c>
     </row>
     <row r="38">
@@ -782,7 +782,7 @@
         <v>3.719836858701231</v>
       </c>
       <c r="C38" t="n">
-        <v>2.251217869317225e-08</v>
+        <v>2.271164809031545e-08</v>
       </c>
     </row>
     <row r="39">
@@ -793,7 +793,7 @@
         <v>3.720693845490776</v>
       </c>
       <c r="C39" t="n">
-        <v>3.177363688035651e-08</v>
+        <v>3.196917390983163e-08</v>
       </c>
     </row>
     <row r="40">
@@ -804,7 +804,7 @@
         <v>3.721636530959276</v>
       </c>
       <c r="C40" t="n">
-        <v>1.583597197948863e-08</v>
+        <v>1.597337464437039e-08</v>
       </c>
     </row>
     <row r="41">
@@ -815,7 +815,7 @@
         <v>3.723350504538367</v>
       </c>
       <c r="C41" t="n">
-        <v>1.070315186753369e-08</v>
+        <v>1.067421528375474e-08</v>
       </c>
     </row>
     <row r="42">
@@ -826,7 +826,7 @@
         <v>3.725064478117458</v>
       </c>
       <c r="C42" t="n">
-        <v>8.137417637451475e-09</v>
+        <v>8.112064985496289e-09</v>
       </c>
     </row>
     <row r="43">
@@ -837,7 +837,7 @@
         <v>3.729178014707276</v>
       </c>
       <c r="C43" t="n">
-        <v>4.877993659717918e-09</v>
+        <v>4.84197169665447e-09</v>
       </c>
     </row>
     <row r="44">
@@ -848,7 +848,7 @@
         <v>3.73337724997605</v>
       </c>
       <c r="C44" t="n">
-        <v>4.273612227153599e-09</v>
+        <v>4.255210448803619e-09</v>
       </c>
     </row>
     <row r="45">
@@ -859,7 +859,7 @@
         <v>3.737747882602732</v>
       </c>
       <c r="C45" t="n">
-        <v>4.024927883214462e-09</v>
+        <v>3.931936668010734e-09</v>
       </c>
     </row>
     <row r="46">
@@ -870,7 +870,7 @@
         <v>3.754973317072596</v>
       </c>
       <c r="C46" t="n">
-        <v>4.176897544873607e-09</v>
+        <v>4.058748001478308e-09</v>
       </c>
     </row>
     <row r="47">
@@ -881,7 +881,7 @@
         <v>3.772113052863507</v>
       </c>
       <c r="C47" t="n">
-        <v>5.043344086740869e-09</v>
+        <v>5.065848605026773e-09</v>
       </c>
     </row>
     <row r="48">
@@ -892,7 +892,7 @@
         <v>3.789167089975462</v>
       </c>
       <c r="C48" t="n">
-        <v>6.600762649199409e-09</v>
+        <v>6.485691744609196e-09</v>
       </c>
     </row>
     <row r="49">
@@ -903,7 +903,7 @@
         <v>3.797908355228826</v>
       </c>
       <c r="C49" t="n">
-        <v>9.309778485950062e-09</v>
+        <v>9.331403832723211e-09</v>
       </c>
     </row>
     <row r="50">
@@ -914,7 +914,7 @@
         <v>3.806478223124282</v>
       </c>
       <c r="C50" t="n">
-        <v>1.137937396206136e-08</v>
+        <v>1.132578179666172e-08</v>
       </c>
     </row>
     <row r="51">
@@ -925,7 +925,7 @@
         <v>3.814876693661827</v>
       </c>
       <c r="C51" t="n">
-        <v>2.08397088705048e-08</v>
+        <v>2.098952378133876e-08</v>
       </c>
     </row>
     <row r="52">
@@ -936,7 +936,7 @@
         <v>3.823360862878328</v>
       </c>
       <c r="C52" t="n">
-        <v>3.186762471355006e-08</v>
+        <v>3.190443409405116e-08</v>
       </c>
     </row>
     <row r="53">
@@ -947,7 +947,7 @@
         <v>3.82773149550501</v>
       </c>
       <c r="C53" t="n">
-        <v>7.366332936385665e-08</v>
+        <v>7.382432227455673e-08</v>
       </c>
     </row>
     <row r="54">
@@ -958,7 +958,7 @@
         <v>3.832102128131692</v>
       </c>
       <c r="C54" t="n">
-        <v>1.087438144763413e-07</v>
+        <v>1.087579355256442e-07</v>
       </c>
     </row>
     <row r="55">
@@ -969,7 +969,7 @@
         <v>3.840586297348192</v>
       </c>
       <c r="C55" t="n">
-        <v>1.117338578489339e-07</v>
+        <v>1.118927846935144e-07</v>
       </c>
     </row>
     <row r="56">
@@ -980,7 +980,7 @@
         <v>3.847442191664556</v>
       </c>
       <c r="C56" t="n">
-        <v>8.068033768654524e-08</v>
+        <v>8.075356843576608e-08</v>
       </c>
     </row>
     <row r="57">
@@ -991,7 +991,7 @@
         <v>3.854383784659876</v>
       </c>
       <c r="C57" t="n">
-        <v>3.7534577606485e-08</v>
+        <v>3.757879643030515e-08</v>
       </c>
     </row>
     <row r="58">
@@ -1002,7 +1002,7 @@
         <v>3.856183456917921</v>
       </c>
       <c r="C58" t="n">
-        <v>2.746514099940577e-08</v>
+        <v>2.770517404502361e-08</v>
       </c>
     </row>
     <row r="59">
@@ -1013,7 +1013,7 @@
         <v>3.857811731818057</v>
       </c>
       <c r="C59" t="n">
-        <v>3.647553510618532e-08</v>
+        <v>3.647727976179245e-08</v>
       </c>
     </row>
     <row r="60">
@@ -1024,7 +1024,7 @@
         <v>3.859611404076103</v>
       </c>
       <c r="C60" t="n">
-        <v>1.400374155507999e-08</v>
+        <v>1.390056752252152e-08</v>
       </c>
     </row>
     <row r="61">
@@ -1035,7 +1035,7 @@
         <v>3.86201096708683</v>
       </c>
       <c r="C61" t="n">
-        <v>9.300685695684207e-09</v>
+        <v>9.238556375481806e-09</v>
       </c>
     </row>
     <row r="62">
@@ -1046,7 +1046,7 @@
         <v>3.866295901034558</v>
       </c>
       <c r="C62" t="n">
-        <v>5.215914615848198e-09</v>
+        <v>5.193779752857754e-09</v>
       </c>
     </row>
     <row r="63">
@@ -1057,7 +1057,7 @@
         <v>3.875037166287922</v>
       </c>
       <c r="C63" t="n">
-        <v>3.811307588256653e-09</v>
+        <v>3.841342427056297e-09</v>
       </c>
     </row>
     <row r="64">
@@ -1068,7 +1068,7 @@
         <v>3.876751139867013</v>
       </c>
       <c r="C64" t="n">
-        <v>8.516018493225096e-09</v>
+        <v>8.649694413848032e-09</v>
       </c>
     </row>
     <row r="65">
@@ -1079,7 +1079,7 @@
         <v>3.879236401556695</v>
       </c>
       <c r="C65" t="n">
-        <v>2.50594245886722e-08</v>
+        <v>2.506826986507589e-08</v>
       </c>
     </row>
     <row r="66">
@@ -1090,7 +1090,7 @@
         <v>3.883521335504422</v>
       </c>
       <c r="C66" t="n">
-        <v>4.314540262884581e-08</v>
+        <v>4.330273690921627e-08</v>
       </c>
     </row>
     <row r="67">
@@ -1101,7 +1101,7 @@
         <v>3.887891968131104</v>
       </c>
       <c r="C67" t="n">
-        <v>7.752818248928023e-08</v>
+        <v>7.751692485827513e-08</v>
       </c>
     </row>
     <row r="68">
@@ -1112,7 +1112,7 @@
         <v>3.891491312647195</v>
       </c>
       <c r="C68" t="n">
-        <v>7.674126963063287e-08</v>
+        <v>7.680644249532558e-08</v>
       </c>
     </row>
     <row r="69">
@@ -1123,7 +1123,7 @@
         <v>3.896376137347605</v>
       </c>
       <c r="C69" t="n">
-        <v>1.31249164393289e-07</v>
+        <v>1.315957336589412e-07</v>
       </c>
     </row>
     <row r="70">
@@ -1134,7 +1134,7 @@
         <v>3.900746769974288</v>
       </c>
       <c r="C70" t="n">
-        <v>1.437569267886839e-07</v>
+        <v>1.445632690519051e-07</v>
       </c>
     </row>
     <row r="71">
@@ -1145,7 +1145,7 @@
         <v>3.908973843153924</v>
       </c>
       <c r="C71" t="n">
-        <v>1.811218998650561e-07</v>
+        <v>1.813741226772611e-07</v>
       </c>
     </row>
     <row r="72">
@@ -1156,7 +1156,7 @@
         <v>3.917886505765197</v>
       </c>
       <c r="C72" t="n">
-        <v>2.666435836814016e-07</v>
+        <v>2.674307971430371e-07</v>
       </c>
     </row>
     <row r="73">
@@ -1167,7 +1167,7 @@
         <v>3.926370674981698</v>
       </c>
       <c r="C73" t="n">
-        <v>2.396463069857814e-07</v>
+        <v>2.400875776602327e-07</v>
       </c>
     </row>
     <row r="74">
@@ -1178,7 +1178,7 @@
         <v>3.934854844198199</v>
       </c>
       <c r="C74" t="n">
-        <v>1.190715110339745e-07</v>
+        <v>1.190022429265227e-07</v>
       </c>
     </row>
     <row r="75">
@@ -1189,7 +1189,7 @@
         <v>3.943510410772608</v>
       </c>
       <c r="C75" t="n">
-        <v>6.208964654730669e-08</v>
+        <v>6.208474109860557e-08</v>
       </c>
     </row>
     <row r="76">
@@ -1200,7 +1200,7 @@
         <v>3.952251676025972</v>
       </c>
       <c r="C76" t="n">
-        <v>4.889366342048133e-08</v>
+        <v>4.906630522352366e-08</v>
       </c>
     </row>
     <row r="77">
@@ -1211,7 +1211,7 @@
         <v>3.960564447884564</v>
       </c>
       <c r="C77" t="n">
-        <v>1.076230603733552e-07</v>
+        <v>1.073430958676354e-07</v>
       </c>
     </row>
     <row r="78">
@@ -1222,7 +1222,7 @@
         <v>3.969305713137928</v>
       </c>
       <c r="C78" t="n">
-        <v>1.178617965373969e-07</v>
+        <v>1.177387052637471e-07</v>
       </c>
     </row>
     <row r="79">
@@ -1233,7 +1233,7 @@
         <v>3.977618484996519</v>
       </c>
       <c r="C79" t="n">
-        <v>8.353256323819913e-08</v>
+        <v>8.365693347712811e-08</v>
       </c>
     </row>
     <row r="80">
@@ -1244,7 +1244,7 @@
         <v>3.982160514981111</v>
       </c>
       <c r="C80" t="n">
-        <v>4.368168338614738e-08</v>
+        <v>4.366665776555187e-08</v>
       </c>
     </row>
     <row r="81">
@@ -1255,7 +1255,7 @@
         <v>3.986274051570929</v>
       </c>
       <c r="C81" t="n">
-        <v>2.545989391493286e-08</v>
+        <v>2.563932994126292e-08</v>
       </c>
     </row>
     <row r="82">
@@ -1266,7 +1266,7 @@
         <v>3.994843919466384</v>
       </c>
       <c r="C82" t="n">
-        <v>2.048867094074386e-08</v>
+        <v>2.057898980767695e-08</v>
       </c>
     </row>
     <row r="83">
@@ -1277,7 +1277,7 @@
         <v>4.012069353936249</v>
       </c>
       <c r="C83" t="n">
-        <v>1.019921653042531e-08</v>
+        <v>1.017149174893061e-08</v>
       </c>
     </row>
     <row r="84">
@@ -1288,7 +1288,7 @@
         <v>4.020724920510658</v>
       </c>
       <c r="C84" t="n">
-        <v>5.222927560367631e-09</v>
+        <v>5.125114576663704e-09</v>
       </c>
     </row>
     <row r="85">
@@ -1299,7 +1299,7 @@
         <v>4.02903769236925</v>
       </c>
       <c r="C85" t="n">
-        <v>3.884968781096479e-09</v>
+        <v>3.8488031448423e-09</v>
       </c>
     </row>
     <row r="86">
@@ -1310,7 +1310,7 @@
         <v>4.046263126839114</v>
       </c>
       <c r="C86" t="n">
-        <v>2.943220011320337e-09</v>
+        <v>2.901256882818356e-09</v>
       </c>
     </row>
     <row r="87">
@@ -1321,7 +1321,7 @@
         <v>4.063402862630025</v>
       </c>
       <c r="C87" t="n">
-        <v>2.592207398278428e-09</v>
+        <v>2.567269621019865e-09</v>
       </c>
     </row>
     <row r="88">
@@ -1332,7 +1332,7 @@
         <v>4.080542598420934</v>
       </c>
       <c r="C88" t="n">
-        <v>3.3319143560159e-09</v>
+        <v>3.329682370686455e-09</v>
       </c>
     </row>
     <row r="89">
@@ -1343,7 +1343,7 @@
         <v>4.084998929726572</v>
       </c>
       <c r="C89" t="n">
-        <v>5.902698686397123e-09</v>
+        <v>5.902549161699778e-09</v>
       </c>
     </row>
     <row r="90">
@@ -1354,7 +1354,7 @@
         <v>4.08816978084789</v>
       </c>
       <c r="C90" t="n">
-        <v>6.645964624297028e-09</v>
+        <v>6.68267966920754e-09</v>
       </c>
     </row>
     <row r="91">
@@ -1365,7 +1365,7 @@
         <v>4.097682334211846</v>
       </c>
       <c r="C91" t="n">
-        <v>7.865908217345019e-09</v>
+        <v>7.894644398364947e-09</v>
       </c>
     </row>
     <row r="92">
@@ -1376,7 +1376,7 @@
         <v>4.101967268159573</v>
       </c>
       <c r="C92" t="n">
-        <v>1.176982697641032e-08</v>
+        <v>1.179037497381864e-08</v>
       </c>
     </row>
     <row r="93">
@@ -1387,7 +1387,7 @@
         <v>4.106423599465209</v>
       </c>
       <c r="C93" t="n">
-        <v>2.464152576170822e-08</v>
+        <v>2.465354365284008e-08</v>
       </c>
     </row>
     <row r="94">
@@ -1398,7 +1398,7 @@
         <v>4.114907768681709</v>
       </c>
       <c r="C94" t="n">
-        <v>2.988767532307036e-08</v>
+        <v>2.991914743362398e-08</v>
       </c>
     </row>
     <row r="95">
@@ -1409,7 +1409,7 @@
         <v>4.123306239219255</v>
       </c>
       <c r="C95" t="n">
-        <v>2.407479814295018e-08</v>
+        <v>2.406186936222641e-08</v>
       </c>
     </row>
     <row r="96">
@@ -1420,7 +1420,7 @@
         <v>4.131961805793665</v>
       </c>
       <c r="C96" t="n">
-        <v>1.125723879655406e-08</v>
+        <v>1.122626022342939e-08</v>
       </c>
     </row>
     <row r="97">
@@ -1431,7 +1431,7 @@
         <v>4.133847176730665</v>
       </c>
       <c r="C97" t="n">
-        <v>5.374641941212867e-09</v>
+        <v>5.378020336129733e-09</v>
       </c>
     </row>
     <row r="98">
@@ -1442,7 +1442,7 @@
         <v>4.136503835778257</v>
       </c>
       <c r="C98" t="n">
-        <v>3.298910925406921e-09</v>
+        <v>3.304534208719078e-09</v>
       </c>
     </row>
     <row r="99">
@@ -1453,7 +1453,7 @@
         <v>4.140617372368075</v>
       </c>
       <c r="C99" t="n">
-        <v>1.789595309233065e-09</v>
+        <v>1.795940020435003e-09</v>
       </c>
     </row>
     <row r="100">
@@ -1464,7 +1464,7 @@
         <v>4.149015842905621</v>
       </c>
       <c r="C100" t="n">
-        <v>1.128934304093251e-09</v>
+        <v>1.112018809604817e-09</v>
       </c>
     </row>
     <row r="101">
@@ -1475,7 +1475,7 @@
         <v>4.166241277375486</v>
       </c>
       <c r="C101" t="n">
-        <v>7.379083270390332e-10</v>
+        <v>7.24825112084233e-10</v>
       </c>
     </row>
     <row r="102">
@@ -1486,7 +1486,7 @@
         <v>4.180210162045077</v>
       </c>
       <c r="C102" t="n">
-        <v>6.835415864788517e-10</v>
+        <v>7.002001335322783e-10</v>
       </c>
     </row>
     <row r="103">
@@ -1497,7 +1497,7 @@
         <v>4.200435050278351</v>
       </c>
       <c r="C103" t="n">
-        <v>7.755769574753986e-10</v>
+        <v>7.635662922974828e-10</v>
       </c>
     </row>
     <row r="104">
@@ -1508,7 +1508,7 @@
         <v>4.209004918173807</v>
       </c>
       <c r="C104" t="n">
-        <v>1.425711129401634e-09</v>
+        <v>1.443799192818802e-09</v>
       </c>
     </row>
     <row r="105">
@@ -1519,7 +1519,7 @@
         <v>4.21774618342717</v>
       </c>
       <c r="C105" t="n">
-        <v>1.981174142877004e-09</v>
+        <v>1.993070610813498e-09</v>
       </c>
     </row>
     <row r="106">
@@ -1530,7 +1530,7 @@
         <v>4.226230352643671</v>
       </c>
       <c r="C106" t="n">
-        <v>2.466308663122095e-09</v>
+        <v>2.500953715161961e-09</v>
       </c>
     </row>
     <row r="107">
@@ -1541,7 +1541,7 @@
         <v>4.231543670738853</v>
       </c>
       <c r="C107" t="n">
-        <v>2.463888793967992e-09</v>
+        <v>2.485254281704504e-09</v>
       </c>
     </row>
     <row r="108">
@@ -1552,7 +1552,7 @@
         <v>4.234971617897036</v>
       </c>
       <c r="C108" t="n">
-        <v>2.466667487834322e-09</v>
+        <v>2.471200520459076e-09</v>
       </c>
     </row>
     <row r="109">
@@ -1563,7 +1563,7 @@
         <v>4.24071342938699</v>
       </c>
       <c r="C109" t="n">
-        <v>2.325977119901194e-09</v>
+        <v>2.338580454336196e-09</v>
       </c>
     </row>
     <row r="110">
@@ -1574,7 +1574,7 @@
         <v>4.249111899924536</v>
       </c>
       <c r="C110" t="n">
-        <v>2.341614318733022e-09</v>
+        <v>2.346773525261115e-09</v>
       </c>
     </row>
     <row r="111">
@@ -1585,7 +1585,7 @@
         <v>4.2521970523669</v>
       </c>
       <c r="C111" t="n">
-        <v>2.351684591661763e-09</v>
+        <v>2.326235604257934e-09</v>
       </c>
     </row>
     <row r="112">
@@ -1596,7 +1596,7 @@
         <v>4.257767466498946</v>
       </c>
       <c r="C112" t="n">
-        <v>2.441187807023882e-09</v>
+        <v>2.520715327891222e-09</v>
       </c>
     </row>
     <row r="113">
@@ -1607,7 +1607,7 @@
         <v>4.262138099125628</v>
       </c>
       <c r="C113" t="n">
-        <v>2.518725617657423e-09</v>
+        <v>2.61032555377021e-09</v>
       </c>
     </row>
     <row r="114">
@@ -1618,7 +1618,7 @@
         <v>4.264537662136355</v>
       </c>
       <c r="C114" t="n">
-        <v>2.672065229822889e-09</v>
+        <v>2.764174709226572e-09</v>
       </c>
     </row>
     <row r="115">
@@ -1629,7 +1629,7 @@
         <v>4.267280019862901</v>
       </c>
       <c r="C115" t="n">
-        <v>2.682305833483053e-09</v>
+        <v>2.742574890927945e-09</v>
       </c>
     </row>
     <row r="116">
@@ -1640,7 +1640,7 @@
         <v>4.269079692120946</v>
       </c>
       <c r="C116" t="n">
-        <v>2.739167435918838e-09</v>
+        <v>2.760669604478074e-09</v>
       </c>
     </row>
     <row r="117">
@@ -1651,7 +1651,7 @@
         <v>4.271479255131674</v>
       </c>
       <c r="C117" t="n">
-        <v>2.644963981341308e-09</v>
+        <v>2.717492716348798e-09</v>
       </c>
     </row>
     <row r="118">
@@ -1662,7 +1662,7 @@
         <v>4.273021831352856</v>
       </c>
       <c r="C118" t="n">
-        <v>2.627280308296557e-09</v>
+        <v>2.709165732629298e-09</v>
       </c>
     </row>
     <row r="119">
@@ -1673,7 +1673,7 @@
         <v>4.281677397927266</v>
       </c>
       <c r="C119" t="n">
-        <v>2.125866694346388e-09</v>
+        <v>2.222613848732055e-09</v>
       </c>
     </row>
     <row r="120">
@@ -1684,7 +1684,7 @@
         <v>4.286305126590811</v>
       </c>
       <c r="C120" t="n">
-        <v>2.057543009686877e-09</v>
+        <v>2.065317533894718e-09</v>
       </c>
     </row>
     <row r="121">
@@ -1695,7 +1695,7 @@
         <v>4.29024726582272</v>
       </c>
       <c r="C121" t="n">
-        <v>1.618580718945491e-09</v>
+        <v>1.658897790469533e-09</v>
       </c>
     </row>
     <row r="122">
@@ -1706,7 +1706,7 @@
         <v>4.298731435039221</v>
       </c>
       <c r="C122" t="n">
-        <v>1.263706815187666e-09</v>
+        <v>1.299913365273327e-09</v>
       </c>
     </row>
     <row r="123">
@@ -1717,7 +1717,7 @@
         <v>4.303359163702766</v>
       </c>
       <c r="C123" t="n">
-        <v>1.323955884195478e-09</v>
+        <v>1.32140415508625e-09</v>
       </c>
     </row>
     <row r="124">
@@ -1728,7 +1728,7 @@
         <v>4.307472700292585</v>
       </c>
       <c r="C124" t="n">
-        <v>1.657003761966599e-09</v>
+        <v>1.705432543332973e-09</v>
       </c>
     </row>
     <row r="125">
@@ -1739,7 +1739,7 @@
         <v>4.309957961982268</v>
       </c>
       <c r="C125" t="n">
-        <v>2.23758441278612e-09</v>
+        <v>2.304224669558033e-09</v>
       </c>
     </row>
     <row r="126">
@@ -1750,7 +1750,7 @@
         <v>4.310129359340176</v>
       </c>
       <c r="C126" t="n">
-        <v>2.161195998542675e-09</v>
+        <v>2.224107475675002e-09</v>
       </c>
     </row>
     <row r="127">
@@ -1761,7 +1761,7 @@
         <v>4.311757634240313</v>
       </c>
       <c r="C127" t="n">
-        <v>3.472186260106773e-09</v>
+        <v>3.579916967165692e-09</v>
       </c>
     </row>
     <row r="128">
@@ -1772,7 +1772,7 @@
         <v>4.31604256818804</v>
       </c>
       <c r="C128" t="n">
-        <v>6.333542671146087e-09</v>
+        <v>6.49362535146142e-09</v>
       </c>
     </row>
     <row r="129">
@@ -1783,7 +1783,7 @@
         <v>4.318613528556677</v>
       </c>
       <c r="C129" t="n">
-        <v>6.880555589778081e-09</v>
+        <v>7.004351634152856e-09</v>
       </c>
     </row>
     <row r="130">
@@ -1794,7 +1794,7 @@
         <v>4.320584598172632</v>
       </c>
       <c r="C130" t="n">
-        <v>7.163984546968087e-09</v>
+        <v>7.199268118971649e-09</v>
       </c>
     </row>
     <row r="131">
@@ -1805,7 +1805,7 @@
         <v>4.322898462504404</v>
       </c>
       <c r="C131" t="n">
-        <v>8.111478749139536e-09</v>
+        <v>8.281495396850633e-09</v>
       </c>
     </row>
     <row r="132">
@@ -1816,7 +1816,7 @@
         <v>4.325555121551995</v>
       </c>
       <c r="C132" t="n">
-        <v>9.199024009278202e-09</v>
+        <v>9.395655379040393e-09</v>
       </c>
     </row>
     <row r="133">
@@ -1827,7 +1827,7 @@
         <v>4.327954684562723</v>
       </c>
       <c r="C133" t="n">
-        <v>9.599643886575006e-09</v>
+        <v>9.791234705234227e-09</v>
       </c>
     </row>
     <row r="134">
@@ -1838,7 +1838,7 @@
         <v>4.330782740968223</v>
       </c>
       <c r="C134" t="n">
-        <v>9.193078022764176e-09</v>
+        <v>9.313264369235224e-09</v>
       </c>
     </row>
     <row r="135">
@@ -1849,7 +1849,7 @@
         <v>4.33318230397895</v>
       </c>
       <c r="C135" t="n">
-        <v>8.321240106846555e-09</v>
+        <v>8.460267907082016e-09</v>
       </c>
     </row>
     <row r="136">
@@ -1860,7 +1860,7 @@
         <v>4.337638635284587</v>
       </c>
       <c r="C136" t="n">
-        <v>6.574471589423951e-09</v>
+        <v>6.596075586351335e-09</v>
       </c>
     </row>
     <row r="137">
@@ -1871,7 +1871,7 @@
         <v>4.341752171874406</v>
       </c>
       <c r="C137" t="n">
-        <v>4.614098084398461e-09</v>
+        <v>4.736206899669055e-09</v>
       </c>
     </row>
     <row r="138">
@@ -1882,7 +1882,7 @@
         <v>4.350407738448815</v>
       </c>
       <c r="C138" t="n">
-        <v>3.039540383907111e-09</v>
+        <v>3.088407136978061e-09</v>
       </c>
     </row>
     <row r="139">
@@ -1893,7 +1893,7 @@
         <v>4.354692672396543</v>
       </c>
       <c r="C139" t="n">
-        <v>2.431324117198909e-09</v>
+        <v>2.458226549840028e-09</v>
       </c>
     </row>
     <row r="140">
@@ -1904,7 +1904,7 @@
         <v>4.358634811628452</v>
       </c>
       <c r="C140" t="n">
-        <v>1.961510345469901e-09</v>
+        <v>1.987365603714384e-09</v>
       </c>
     </row>
     <row r="141">
@@ -1915,7 +1915,7 @@
         <v>4.366947583487043</v>
       </c>
       <c r="C141" t="n">
-        <v>1.614642300250774e-09</v>
+        <v>1.643347908775684e-09</v>
       </c>
     </row>
     <row r="142">
@@ -1926,7 +1926,7 @@
         <v>4.371918106866407</v>
       </c>
       <c r="C142" t="n">
-        <v>1.764871997196404e-09</v>
+        <v>1.774285507212124e-09</v>
       </c>
     </row>
     <row r="143">
@@ -1937,7 +1937,7 @@
         <v>4.375088957987725</v>
       </c>
       <c r="C143" t="n">
-        <v>6.562044961820287e-09</v>
+        <v>6.639978917215688e-09</v>
       </c>
     </row>
     <row r="144">
@@ -1948,7 +1948,7 @@
         <v>4.377745617035317</v>
       </c>
       <c r="C144" t="n">
-        <v>1.232172228251438e-08</v>
+        <v>1.244938889422014e-08</v>
       </c>
     </row>
     <row r="145">
@@ -1959,7 +1959,7 @@
         <v>4.379545289293363</v>
       </c>
       <c r="C145" t="n">
-        <v>1.361584680249275e-08</v>
+        <v>1.368973917835122e-08</v>
       </c>
     </row>
     <row r="146">
@@ -1970,7 +1970,7 @@
         <v>4.380487974761863</v>
       </c>
       <c r="C146" t="n">
-        <v>1.430131948571118e-08</v>
+        <v>1.443891006718185e-08</v>
       </c>
     </row>
     <row r="147">
@@ -1981,7 +1981,7 @@
         <v>4.380830769477681</v>
       </c>
       <c r="C147" t="n">
-        <v>1.399009071519952e-08</v>
+        <v>1.408121769190668e-08</v>
       </c>
     </row>
     <row r="148">
@@ -1992,7 +1992,7 @@
         <v>4.381087865514544</v>
       </c>
       <c r="C148" t="n">
-        <v>1.395117460399999e-08</v>
+        <v>1.399717067142852e-08</v>
       </c>
     </row>
     <row r="149">
@@ -2003,7 +2003,7 @@
         <v>4.382973236451544</v>
       </c>
       <c r="C149" t="n">
-        <v>1.714974499236742e-08</v>
+        <v>1.719112177981232e-08</v>
       </c>
     </row>
     <row r="150">
@@ -2014,7 +2014,7 @@
         <v>4.384687210030635</v>
       </c>
       <c r="C150" t="n">
-        <v>1.78359252292385e-08</v>
+        <v>1.786363200249211e-08</v>
       </c>
     </row>
     <row r="151">
@@ -2025,7 +2025,7 @@
         <v>4.386401183609727</v>
       </c>
       <c r="C151" t="n">
-        <v>1.769595641620956e-08</v>
+        <v>1.778482792707627e-08</v>
       </c>
     </row>
     <row r="152">
@@ -2036,7 +2036,7 @@
         <v>4.388029458509863</v>
       </c>
       <c r="C152" t="n">
-        <v>1.783886158419674e-08</v>
+        <v>1.791083937481153e-08</v>
       </c>
     </row>
     <row r="153">
@@ -2047,7 +2047,7 @@
         <v>4.389057842657317</v>
       </c>
       <c r="C153" t="n">
-        <v>1.796619517966836e-08</v>
+        <v>1.793738910738407e-08</v>
       </c>
     </row>
     <row r="154">
@@ -2058,7 +2058,7 @@
         <v>4.389743432088954</v>
       </c>
       <c r="C154" t="n">
-        <v>1.770294874955605e-08</v>
+        <v>1.777361277111894e-08</v>
       </c>
     </row>
     <row r="155">
@@ -2069,7 +2069,7 @@
         <v>4.392314392457591</v>
       </c>
       <c r="C155" t="n">
-        <v>1.724988749985525e-08</v>
+        <v>1.726150950060228e-08</v>
       </c>
     </row>
     <row r="156">
@@ -2080,7 +2080,7 @@
         <v>4.396599326405318</v>
       </c>
       <c r="C156" t="n">
-        <v>1.421744318818857e-08</v>
+        <v>1.424993741771353e-08</v>
       </c>
     </row>
     <row r="157">
@@ -2091,7 +2091,7 @@
         <v>4.400884260353045</v>
       </c>
       <c r="C157" t="n">
-        <v>1.032793175829233e-08</v>
+        <v>1.03562655654093e-08</v>
       </c>
     </row>
     <row r="158">
@@ -2102,7 +2102,7 @@
         <v>4.404912098263909</v>
       </c>
       <c r="C158" t="n">
-        <v>7.419665239828398e-09</v>
+        <v>7.445481036614621e-09</v>
       </c>
     </row>
     <row r="159">
@@ -2113,7 +2113,7 @@
         <v>4.406111879769273</v>
       </c>
       <c r="C159" t="n">
-        <v>7.721803519554743e-09</v>
+        <v>7.781363703116794e-09</v>
       </c>
     </row>
     <row r="160">
@@ -2124,7 +2124,7 @@
         <v>4.4094541282485</v>
       </c>
       <c r="C160" t="n">
-        <v>5.877455867064893e-09</v>
+        <v>5.936458547906646e-09</v>
       </c>
     </row>
     <row r="161">
@@ -2135,7 +2135,7 @@
         <v>4.413824760875183</v>
       </c>
       <c r="C161" t="n">
-        <v>5.795888029595504e-09</v>
+        <v>5.864895055205603e-09</v>
       </c>
     </row>
     <row r="162">
@@ -2146,7 +2146,7 @@
         <v>4.41622432388591</v>
       </c>
       <c r="C162" t="n">
-        <v>5.571777438484798e-09</v>
+        <v>5.572722531044381e-09</v>
       </c>
     </row>
     <row r="163">
@@ -2157,7 +2157,7 @@
         <v>4.418795284254546</v>
       </c>
       <c r="C163" t="n">
-        <v>5.072162758614583e-09</v>
+        <v>5.105257740808562e-09</v>
       </c>
     </row>
     <row r="164">
@@ -2168,7 +2168,7 @@
         <v>4.421623340660047</v>
       </c>
       <c r="C164" t="n">
-        <v>4.686566074951231e-09</v>
+        <v>4.684034986259035e-09</v>
       </c>
     </row>
     <row r="165">
@@ -2179,7 +2179,7 @@
         <v>4.423337314239138</v>
       </c>
       <c r="C165" t="n">
-        <v>4.443635359940999e-09</v>
+        <v>4.45516168330591e-09</v>
       </c>
     </row>
     <row r="166">
@@ -2190,7 +2190,7 @@
         <v>4.424194301028683</v>
       </c>
       <c r="C166" t="n">
-        <v>4.233104719368513e-09</v>
+        <v>4.261304517862599e-09</v>
       </c>
     </row>
     <row r="167">
@@ -2201,7 +2201,7 @@
         <v>4.429336221765956</v>
       </c>
       <c r="C167" t="n">
-        <v>3.512791698451114e-09</v>
+        <v>3.539479019965675e-09</v>
       </c>
     </row>
     <row r="168">
@@ -2212,7 +2212,7 @@
         <v>4.431392990060865</v>
       </c>
       <c r="C168" t="n">
-        <v>3.136437293810097e-09</v>
+        <v>3.148016677305028e-09</v>
       </c>
     </row>
     <row r="169">
@@ -2223,7 +2223,7 @@
         <v>4.440477050030048</v>
       </c>
       <c r="C169" t="n">
-        <v>1.944820975849888e-09</v>
+        <v>1.941982929930374e-09</v>
       </c>
     </row>
     <row r="170">
@@ -2234,7 +2234,7 @@
         <v>4.457445388463049</v>
       </c>
       <c r="C170" t="n">
-        <v>1.35841731400521e-09</v>
+        <v>1.36343544783882e-09</v>
       </c>
     </row>
     <row r="171">
@@ -2245,7 +2245,7 @@
         <v>4.474756521611869</v>
       </c>
       <c r="C171" t="n">
-        <v>1.415262274443608e-09</v>
+        <v>1.415629526971773e-09</v>
       </c>
     </row>
     <row r="172">
@@ -2256,7 +2256,7 @@
         <v>4.491896257402779</v>
       </c>
       <c r="C172" t="n">
-        <v>1.807134176229027e-09</v>
+        <v>1.81254148881132e-09</v>
       </c>
     </row>
     <row r="173">
@@ -2267,7 +2267,7 @@
         <v>4.500037631903461</v>
       </c>
       <c r="C173" t="n">
-        <v>2.283753792948041e-09</v>
+        <v>2.293306566614055e-09</v>
       </c>
     </row>
     <row r="174">
@@ -2278,7 +2278,7 @@
         <v>4.503122784345824</v>
       </c>
       <c r="C174" t="n">
-        <v>2.486463089647494e-09</v>
+        <v>2.483737210284527e-09</v>
       </c>
     </row>
     <row r="175">
@@ -2289,7 +2289,7 @@
         <v>4.509121691872643</v>
       </c>
       <c r="C175" t="n">
-        <v>3.345744888570892e-09</v>
+        <v>3.351830382341424e-09</v>
       </c>
     </row>
     <row r="176">
@@ -2300,7 +2300,7 @@
         <v>4.517520162410189</v>
       </c>
       <c r="C176" t="n">
-        <v>4.897659411951181e-09</v>
+        <v>4.896995646852774e-09</v>
       </c>
     </row>
     <row r="177">
@@ -2311,7 +2311,7 @@
         <v>4.521890795036872</v>
       </c>
       <c r="C177" t="n">
-        <v>5.74413934691785e-09</v>
+        <v>5.727440747007819e-09</v>
       </c>
     </row>
     <row r="178">
@@ -2322,7 +2322,7 @@
         <v>4.526175728984599</v>
       </c>
       <c r="C178" t="n">
-        <v>6.94164060383979e-09</v>
+        <v>6.930956806727728e-09</v>
       </c>
     </row>
     <row r="179">
@@ -2333,7 +2333,7 @@
         <v>4.530460662932327</v>
       </c>
       <c r="C179" t="n">
-        <v>9.133980812577891e-09</v>
+        <v>9.113248772823252e-09</v>
       </c>
     </row>
     <row r="180">
@@ -2344,7 +2344,7 @@
         <v>4.534574199522145</v>
       </c>
       <c r="C180" t="n">
-        <v>1.355203214112365e-08</v>
+        <v>1.357240824568607e-08</v>
       </c>
     </row>
     <row r="181">
@@ -2355,7 +2355,7 @@
         <v>4.539030530827781</v>
       </c>
       <c r="C181" t="n">
-        <v>1.716387290148996e-08</v>
+        <v>1.709082588500825e-08</v>
       </c>
     </row>
     <row r="182">
@@ -2366,7 +2366,7 @@
         <v>4.543486862133419</v>
       </c>
       <c r="C182" t="n">
-        <v>2.204226259871044e-08</v>
+        <v>2.203816270669926e-08</v>
       </c>
     </row>
     <row r="183">
@@ -2377,7 +2377,7 @@
         <v>4.545800726465191</v>
       </c>
       <c r="C183" t="n">
-        <v>2.57299540882973e-08</v>
+        <v>2.573614114159357e-08</v>
       </c>
     </row>
     <row r="184">
@@ -2388,7 +2388,7 @@
         <v>4.549914263055009</v>
       </c>
       <c r="C184" t="n">
-        <v>2.474018701865464e-08</v>
+        <v>2.479917538500798e-08</v>
       </c>
     </row>
     <row r="185">
@@ -2399,7 +2399,7 @@
         <v>4.551628236634101</v>
       </c>
       <c r="C185" t="n">
-        <v>2.4254862796832e-08</v>
+        <v>2.425619644661028e-08</v>
       </c>
     </row>
     <row r="186">
@@ -2410,7 +2410,7 @@
         <v>4.553942100965873</v>
       </c>
       <c r="C186" t="n">
-        <v>2.262850341726082e-08</v>
+        <v>2.262152502805642e-08</v>
       </c>
     </row>
     <row r="187">
@@ -2421,7 +2421,7 @@
         <v>4.558912624345237</v>
       </c>
       <c r="C187" t="n">
-        <v>1.932963214071757e-08</v>
+        <v>1.936105341076898e-08</v>
       </c>
     </row>
     <row r="188">
@@ -2432,7 +2432,7 @@
         <v>4.562940462256101</v>
       </c>
       <c r="C188" t="n">
-        <v>1.813373370578346e-08</v>
+        <v>1.815056610716552e-08</v>
       </c>
     </row>
     <row r="189">
@@ -2443,7 +2443,7 @@
         <v>4.56688260148801</v>
       </c>
       <c r="C189" t="n">
-        <v>1.537917628883393e-08</v>
+        <v>1.53727821795849e-08</v>
       </c>
     </row>
     <row r="190">
@@ -2454,7 +2454,7 @@
         <v>4.571424631472602</v>
       </c>
       <c r="C190" t="n">
-        <v>1.206183636123905e-08</v>
+        <v>1.20654458259225e-08</v>
       </c>
     </row>
     <row r="191">
@@ -2465,7 +2465,7 @@
         <v>4.575623866741375</v>
       </c>
       <c r="C191" t="n">
-        <v>1.000873659144901e-08</v>
+        <v>1.003069962278932e-08</v>
       </c>
     </row>
     <row r="192">
@@ -2476,7 +2476,7 @@
         <v>4.580080198047011</v>
       </c>
       <c r="C192" t="n">
-        <v>7.395917019544106e-09</v>
+        <v>7.400325794663643e-09</v>
       </c>
     </row>
     <row r="193">
@@ -2487,7 +2487,7 @@
         <v>4.58402233727892</v>
       </c>
       <c r="C193" t="n">
-        <v>4.992696002919257e-09</v>
+        <v>4.994225043583185e-09</v>
       </c>
     </row>
     <row r="194">
@@ -2498,7 +2498,7 @@
         <v>4.588478668584557</v>
       </c>
       <c r="C194" t="n">
-        <v>3.037015864243552e-09</v>
+        <v>3.049075207625936e-09</v>
       </c>
     </row>
     <row r="195">
@@ -2509,7 +2509,7 @@
         <v>4.588650065942466</v>
       </c>
       <c r="C195" t="n">
-        <v>3.056861023503883e-09</v>
+        <v>3.053211082897105e-09</v>
       </c>
     </row>
     <row r="196">
@@ -2520,7 +2520,7 @@
         <v>4.592078013100648</v>
       </c>
       <c r="C196" t="n">
-        <v>2.283944918519029e-09</v>
+        <v>2.283196306929565e-09</v>
       </c>
     </row>
     <row r="197">
@@ -2531,7 +2531,7 @@
         <v>4.593277794606012</v>
       </c>
       <c r="C197" t="n">
-        <v>2.152737729770367e-09</v>
+        <v>2.143857107170084e-09</v>
       </c>
     </row>
     <row r="198">
@@ -2542,7 +2542,7 @@
         <v>4.593534890642876</v>
       </c>
       <c r="C198" t="n">
-        <v>2.020999231092112e-09</v>
+        <v>2.021147102494385e-09</v>
       </c>
     </row>
     <row r="199">
@@ -2553,7 +2553,7 @@
         <v>4.596534344406285</v>
       </c>
       <c r="C199" t="n">
-        <v>3.379196267552245e-09</v>
+        <v>3.381813653939522e-09</v>
       </c>
     </row>
     <row r="200">
@@ -2564,7 +2564,7 @@
         <v>4.597819824590603</v>
       </c>
       <c r="C200" t="n">
-        <v>2.599047297742881e-09</v>
+        <v>2.597964478018657e-09</v>
       </c>
     </row>
     <row r="201">
@@ -2575,7 +2575,7 @@
         <v>4.601504867785649</v>
       </c>
       <c r="C201" t="n">
-        <v>4.040049199671605e-09</v>
+        <v>4.043052143697281e-09</v>
       </c>
     </row>
     <row r="202">
@@ -2586,7 +2586,7 @@
         <v>4.603133142685785</v>
       </c>
       <c r="C202" t="n">
-        <v>3.816701965978032e-09</v>
+        <v>3.8143972971598e-09</v>
       </c>
     </row>
     <row r="203">
@@ -2597,7 +2597,7 @@
         <v>4.604932814943831</v>
       </c>
       <c r="C203" t="n">
-        <v>3.645802309101747e-09</v>
+        <v>3.656879157478101e-09</v>
       </c>
     </row>
     <row r="204">
@@ -2608,7 +2608,7 @@
         <v>4.606646788522922</v>
       </c>
       <c r="C204" t="n">
-        <v>3.586428606503706e-09</v>
+        <v>3.587363184923616e-09</v>
       </c>
     </row>
     <row r="205">
@@ -2619,7 +2619,7 @@
         <v>4.608446460780968</v>
       </c>
       <c r="C205" t="n">
-        <v>3.487665147330097e-09</v>
+        <v>3.473415299904374e-09</v>
       </c>
     </row>
     <row r="206">
@@ -2630,7 +2630,7 @@
         <v>4.610160434360059</v>
       </c>
       <c r="C206" t="n">
-        <v>3.291458425316731e-09</v>
+        <v>3.291710615705135e-09</v>
       </c>
     </row>
     <row r="207">
@@ -2641,7 +2641,7 @@
         <v>4.611617311902286</v>
       </c>
       <c r="C207" t="n">
-        <v>3.317222384767839e-09</v>
+        <v>3.31096586463291e-09</v>
       </c>
     </row>
     <row r="208">
@@ -2652,7 +2652,7 @@
         <v>4.615987944528968</v>
       </c>
       <c r="C208" t="n">
-        <v>1.929551603478648e-09</v>
+        <v>1.93872527389759e-09</v>
       </c>
     </row>
     <row r="209">
@@ -2663,7 +2663,7 @@
         <v>4.620529974513559</v>
       </c>
       <c r="C209" t="n">
-        <v>8.343216448352301e-10</v>
+        <v>8.385846003411376e-10</v>
       </c>
     </row>
     <row r="210">
@@ -2674,7 +2674,7 @@
         <v>4.622929537524286</v>
       </c>
       <c r="C210" t="n">
-        <v>5.320653329956697e-10</v>
+        <v>5.331020975714176e-10</v>
       </c>
     </row>
     <row r="211">
@@ -2685,7 +2685,7 @@
         <v>4.623272332240105</v>
       </c>
       <c r="C211" t="n">
-        <v>7.441977538229489e-10</v>
+        <v>7.469840365158173e-10</v>
       </c>
     </row>
     <row r="212">
@@ -2696,7 +2696,7 @@
         <v>4.623786524313832</v>
       </c>
       <c r="C212" t="n">
-        <v>4.673389450393752e-10</v>
+        <v>4.637202286053193e-10</v>
       </c>
     </row>
     <row r="213">
@@ -2707,7 +2707,7 @@
         <v>4.625586196571877</v>
       </c>
       <c r="C213" t="n">
-        <v>3.592932620014563e-10</v>
+        <v>3.57973438515998e-10</v>
       </c>
     </row>
     <row r="214">
@@ -2718,7 +2718,7 @@
         <v>4.628928445051105</v>
       </c>
       <c r="C214" t="n">
-        <v>3.093425184771638e-10</v>
+        <v>3.08043891142377e-10</v>
       </c>
     </row>
     <row r="215">
@@ -2729,7 +2729,7 @@
         <v>4.631670802777651</v>
       </c>
       <c r="C215" t="n">
-        <v>2.859160840821399e-10</v>
+        <v>2.855317385320628e-10</v>
       </c>
     </row>
     <row r="216">
@@ -2740,7 +2740,7 @@
         <v>4.64049776670997</v>
       </c>
       <c r="C216" t="n">
-        <v>2.716466855610167e-10</v>
+        <v>2.770929380799137e-10</v>
       </c>
     </row>
     <row r="217">
@@ -2751,7 +2751,7 @@
         <v>4.649667525358106</v>
       </c>
       <c r="C217" t="n">
-        <v>3.209904490921965e-10</v>
+        <v>3.171813443627245e-10</v>
       </c>
     </row>
     <row r="218">
@@ -2762,7 +2762,7 @@
         <v>4.658494489290425</v>
       </c>
       <c r="C218" t="n">
-        <v>3.124323279745904e-10</v>
+        <v>3.141134075912043e-10</v>
       </c>
     </row>
     <row r="219">
@@ -2773,7 +2773,7 @@
         <v>4.667921343975426</v>
       </c>
       <c r="C219" t="n">
-        <v>3.387081070018199e-10</v>
+        <v>3.386242853146884e-10</v>
       </c>
     </row>
     <row r="220">
@@ -2784,7 +2784,7 @@
         <v>4.671263592454653</v>
       </c>
       <c r="C220" t="n">
-        <v>3.86835976872057e-10</v>
+        <v>3.882906581593943e-10</v>
       </c>
     </row>
   </sheetData>
